--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY8"/>
+  <dimension ref="A1:AY58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891798</v>
+        <v>111891795</v>
       </c>
       <c r="B2" t="n">
-        <v>90018</v>
+        <v>89425</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1339</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575405.8647675795</v>
+        <v>575340.2933948777</v>
       </c>
       <c r="R2" t="n">
-        <v>6633801.810108438</v>
+        <v>6633831.152179351</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891797</v>
+        <v>111891798</v>
       </c>
       <c r="B3" t="n">
-        <v>5113</v>
+        <v>90018</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,39 +808,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575308.3438281321</v>
+        <v>575405.8647675795</v>
       </c>
       <c r="R3" t="n">
-        <v>6633742.507718229</v>
+        <v>6633801.810108438</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -1021,10 +1016,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891795</v>
+        <v>111891797</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,38 +1028,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575340.2933948777</v>
+        <v>575308.3438281321</v>
       </c>
       <c r="R5" t="n">
-        <v>6633831.152179351</v>
+        <v>6633742.507718229</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111914716</v>
+        <v>111940503</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,49 +1262,46 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kronmossberget S, Vstm</t>
+          <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575387.1271958912</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R7" t="n">
-        <v>6633831.599720322</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1328,7 +1325,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1338,7 +1335,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1370,10 +1367,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111914709</v>
+        <v>111940535</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1382,49 +1379,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kronmossberget S, Vstm</t>
+          <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575387.1271958912</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R8" t="n">
-        <v>6633831.599720322</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1448,7 +1442,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1458,7 +1452,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-04</t>
+          <t>2023-09-06</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1487,6 +1481,5832 @@
         </is>
       </c>
       <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>111940490</v>
+      </c>
+      <c r="B9" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>575245.8958250808</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6633940.865181752</v>
+      </c>
+      <c r="S9" t="n">
+        <v>50</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>111940496</v>
+      </c>
+      <c r="B10" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>575061.3826721595</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6633899.419929879</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>111940504</v>
+      </c>
+      <c r="B11" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>575123.1609921471</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6633783.510092617</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111940531</v>
+      </c>
+      <c r="B12" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>575219.8730028294</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6633957.433703677</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>111940536</v>
+      </c>
+      <c r="B13" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>575145.599272102</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6633819.665229536</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111940545</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89807</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>5321</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Barkticka</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Rigidoporus corticola</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Fr.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>575064.8979840317</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6633949.772658374</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111940540</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>575066.3157799508</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6633904.547837113</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111940497</v>
+      </c>
+      <c r="B16" t="n">
+        <v>8367</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>106554</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Björksplintborre</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Scolytus ratzeburgii</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Janson, 1856</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>575056.384174044</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6633922.448560039</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111940519</v>
+      </c>
+      <c r="B17" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>575314.8626831421</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6633768.787645163</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111940521</v>
+      </c>
+      <c r="B18" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>575287.8594700412</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6633709.407490551</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111940522</v>
+      </c>
+      <c r="B19" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>575286.8117221124</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6633711.39763993</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111940493</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>575245.8958250808</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6633940.865181752</v>
+      </c>
+      <c r="S20" t="n">
+        <v>50</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111940489</v>
+      </c>
+      <c r="B21" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>575219.8730028294</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6633957.433703677</v>
+      </c>
+      <c r="S21" t="n">
+        <v>50</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111940526</v>
+      </c>
+      <c r="B22" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>575221.7572314964</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6633814.670145035</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111940481</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>575297.4408873306</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6633982.134978426</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111940506</v>
+      </c>
+      <c r="B24" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>575087.3636053291</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6633835.080760521</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111940492</v>
+      </c>
+      <c r="B25" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>575320.8446553242</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6633970.5421063</v>
+      </c>
+      <c r="S25" t="n">
+        <v>50</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111940539</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>575071.96347728</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6633799.571240677</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111940513</v>
+      </c>
+      <c r="B27" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>575311.6275743864</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6633903.480557631</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111940527</v>
+      </c>
+      <c r="B28" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>575243.4452991589</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6633912.657744031</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111940516</v>
+      </c>
+      <c r="B29" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>575280.599196161</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6633794.240529041</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>111940491</v>
+      </c>
+      <c r="B30" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>575322.561193137</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6633910.741786715</v>
+      </c>
+      <c r="S30" t="n">
+        <v>50</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>111940495</v>
+      </c>
+      <c r="B31" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>575219.8730028294</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6633957.433703677</v>
+      </c>
+      <c r="S31" t="n">
+        <v>50</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>111940523</v>
+      </c>
+      <c r="B32" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>575244.3641672247</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6633767.861525966</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB32" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>111940524</v>
+      </c>
+      <c r="B33" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>575235.5650616023</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6633804.390335427</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB33" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>111940510</v>
+      </c>
+      <c r="B34" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>575349.3621255655</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6634004.80887842</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB34" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>111940480</v>
+      </c>
+      <c r="B35" t="n">
+        <v>5135</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>105930</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Vågbandad barkbock</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Semanotus undatus</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>575071.9837971994</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6633798.565983936</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB35" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111940514</v>
+      </c>
+      <c r="B36" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>575319.6830904693</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6633903.643923754</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB36" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>111940508</v>
+      </c>
+      <c r="B37" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>575087.1298778135</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6633846.64108369</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>111940483</v>
+      </c>
+      <c r="B38" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>575123.1609921471</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6633783.510092617</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB38" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>111940525</v>
+      </c>
+      <c r="B39" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>575228.3839428589</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6633810.781705923</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB39" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>111940494</v>
+      </c>
+      <c r="B40" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>575226.3903755767</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6633809.735658599</v>
+      </c>
+      <c r="S40" t="n">
+        <v>50</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB40" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>111940479</v>
+      </c>
+      <c r="B41" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>53</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>575161.9698024652</v>
+      </c>
+      <c r="R41" t="n">
+        <v>6633931.623422439</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="inlineStr"/>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>111940478</v>
+      </c>
+      <c r="B42" t="n">
+        <v>94134</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>53</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Vedtrappmossa</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Crossocalyx hellerianus</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>(Nees ex Lindenb.) Meyl.</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>575283.7160419452</v>
+      </c>
+      <c r="R42" t="n">
+        <v>6633814.417083396</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="inlineStr"/>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>111940509</v>
+      </c>
+      <c r="B43" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>575099.6870508653</v>
+      </c>
+      <c r="R43" t="n">
+        <v>6633898.183036338</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="inlineStr"/>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>111940482</v>
+      </c>
+      <c r="B44" t="n">
+        <v>88819</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>5685</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Gullgröppa</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Pseudomerulius aureus</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>(Fr.) Jülich</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>575188.9702964281</v>
+      </c>
+      <c r="R44" t="n">
+        <v>6633767.242506729</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
+        </is>
+      </c>
+      <c r="AD44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT44" t="inlineStr"/>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>111940520</v>
+      </c>
+      <c r="B45" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>575342.6487655415</v>
+      </c>
+      <c r="R45" t="n">
+        <v>6633715.044159714</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT45" t="inlineStr"/>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>111940484</v>
+      </c>
+      <c r="B46" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>575071.96347728</v>
+      </c>
+      <c r="R46" t="n">
+        <v>6633799.571240677</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT46" t="inlineStr"/>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>111940543</v>
+      </c>
+      <c r="B47" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>575298.5089502139</v>
+      </c>
+      <c r="R47" t="n">
+        <v>6633979.139770023</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT47" t="inlineStr"/>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>111940533</v>
+      </c>
+      <c r="B48" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>575184.9867731713</v>
+      </c>
+      <c r="R48" t="n">
+        <v>6633939.12875581</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT48" t="inlineStr"/>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>111940505</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>575072.5234012236</v>
+      </c>
+      <c r="R49" t="n">
+        <v>6633821.707174866</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT49" t="inlineStr"/>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>111940487</v>
+      </c>
+      <c r="B50" t="n">
+        <v>89425</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>5442</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Tallticka</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Porodaedalea pini</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>(Brot.) Murrill</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>575331.3240653488</v>
+      </c>
+      <c r="R50" t="n">
+        <v>6633900.863105135</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA50" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB50" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT50" t="inlineStr"/>
+      <c r="AW50" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX50" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>111940515</v>
+      </c>
+      <c r="B51" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>575286.0686730816</v>
+      </c>
+      <c r="R51" t="n">
+        <v>6633872.290124508</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA51" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB51" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX51" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>111940512</v>
+      </c>
+      <c r="B52" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>575360.7812332346</v>
+      </c>
+      <c r="R52" t="n">
+        <v>6633963.30730504</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA52" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX52" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>111940544</v>
+      </c>
+      <c r="B53" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>575314.8626831421</v>
+      </c>
+      <c r="R53" t="n">
+        <v>6633768.787645163</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA53" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB53" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT53" t="inlineStr"/>
+      <c r="AW53" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX53" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>111940511</v>
+      </c>
+      <c r="B54" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>575364.7477283181</v>
+      </c>
+      <c r="R54" t="n">
+        <v>6633966.404677297</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y54" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA54" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB54" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT54" t="inlineStr"/>
+      <c r="AW54" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX54" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>111940538</v>
+      </c>
+      <c r="B55" t="n">
+        <v>5295</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>101728</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Grön aspvedbock</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Saperda perforata</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>(Pallas, 1773)</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>575066.0471405423</v>
+      </c>
+      <c r="R55" t="n">
+        <v>6633942.75649225</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V55" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W55" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y55" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA55" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB55" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC55" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
+        </is>
+      </c>
+      <c r="AD55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="inlineStr"/>
+      <c r="AW55" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>111940485</v>
+      </c>
+      <c r="B56" t="n">
+        <v>89369</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>5447</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Vedticka</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Fuscoporia viticola</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>(Schwein.) Murrill</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>575282.2242737275</v>
+      </c>
+      <c r="R56" t="n">
+        <v>6633863.161328426</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V56" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W56" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y56" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA56" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB56" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT56" t="inlineStr"/>
+      <c r="AW56" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX56" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111940488</v>
+      </c>
+      <c r="B57" t="n">
+        <v>56543</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>575339.293738773</v>
+      </c>
+      <c r="R57" t="n">
+        <v>6633681.788066016</v>
+      </c>
+      <c r="S57" t="n">
+        <v>50</v>
+      </c>
+      <c r="T57" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V57" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W57" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y57" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA57" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB57" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="inlineStr"/>
+      <c r="AW57" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>111940541</v>
+      </c>
+      <c r="B58" t="n">
+        <v>5113</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>100526</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Bronshjon</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Callidium coriaceum</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Paykull, 1800</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>575226.321789555</v>
+      </c>
+      <c r="R58" t="n">
+        <v>6633937.451738381</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB58" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT58" t="inlineStr"/>
+      <c r="AW58" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX58" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -6262,10 +6262,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940487</v>
+        <v>111940538</v>
       </c>
       <c r="B50" t="n">
-        <v>89425</v>
+        <v>5295</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6278,34 +6278,39 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5442</v>
+        <v>101728</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575331.3240653488</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R50" t="n">
-        <v>6633900.863105135</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6348,6 +6353,11 @@
       <c r="AB50" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6374,10 +6384,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940515</v>
+        <v>111940487</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6386,43 +6396,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575286.0686730816</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R51" t="n">
-        <v>6633872.290124508</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6491,7 +6496,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940512</v>
+        <v>111940515</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6536,10 +6541,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575360.7812332346</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R52" t="n">
-        <v>6633963.30730504</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6608,10 +6613,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940544</v>
+        <v>111940512</v>
       </c>
       <c r="B53" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6620,31 +6625,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6653,10 +6658,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575314.8626831421</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R53" t="n">
-        <v>6633768.787645163</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6725,10 +6730,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940511</v>
+        <v>111940544</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6737,31 +6742,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6770,10 +6775,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575364.7477283181</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R54" t="n">
-        <v>6633966.404677297</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6842,10 +6847,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940538</v>
+        <v>111940511</v>
       </c>
       <c r="B55" t="n">
-        <v>5295</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6854,31 +6859,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>101728</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6887,10 +6892,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575066.0471405423</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R55" t="n">
-        <v>6633942.75649225</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6933,11 +6938,6 @@
       <c r="AB55" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD55" t="b">

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY58"/>
+  <dimension ref="A1:AY60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891795</v>
+        <v>111891799</v>
       </c>
       <c r="B2" t="n">
-        <v>89425</v>
+        <v>4711</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>100299</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575340.2933948777</v>
+        <v>575311.1894760416</v>
       </c>
       <c r="R2" t="n">
-        <v>6633831.152179351</v>
+        <v>6633676.692420599</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891798</v>
+        <v>111891795</v>
       </c>
       <c r="B3" t="n">
-        <v>90018</v>
+        <v>89425</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1339</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575405.8647675795</v>
+        <v>575340.2933948777</v>
       </c>
       <c r="R3" t="n">
-        <v>6633801.810108438</v>
+        <v>6633831.152179351</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -1133,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891799</v>
+        <v>111891798</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>90018</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1149,39 +1154,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>1339</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575311.1894760416</v>
+        <v>575405.8647675795</v>
       </c>
       <c r="R6" t="n">
-        <v>6633676.692420599</v>
+        <v>6633801.810108438</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111940503</v>
+        <v>111914709</v>
       </c>
       <c r="B7" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1262,46 +1262,49 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Kronmossberget 100m S, Vstm</t>
+          <t>Kronmossberget S, Vstm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575188.9702964281</v>
+        <v>575387.1271958912</v>
       </c>
       <c r="R7" t="n">
-        <v>6633767.242506729</v>
+        <v>6633831.599720322</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1325,7 +1328,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1335,7 +1338,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1367,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111940535</v>
+        <v>111914716</v>
       </c>
       <c r="B8" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1379,46 +1382,49 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Kronmossberget 100m S, Vstm</t>
+          <t>Kronmossberget S, Vstm</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575120.5423730967</v>
+        <v>575387.1271958912</v>
       </c>
       <c r="R8" t="n">
-        <v>6633838.265864038</v>
+        <v>6633831.599720322</v>
       </c>
       <c r="S8" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1442,7 +1448,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1452,7 +1458,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2023-09-06</t>
+          <t>2023-09-04</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1484,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940490</v>
+        <v>111940532</v>
       </c>
       <c r="B9" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1496,31 +1502,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1529,13 +1535,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575245.8958250808</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R9" t="n">
-        <v>6633940.865181752</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1601,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940496</v>
+        <v>111940482</v>
       </c>
       <c r="B10" t="n">
-        <v>8367</v>
+        <v>88819</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1617,39 +1623,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106554</v>
+        <v>5685</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575061.3826721595</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R10" t="n">
-        <v>6633899.419929879</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1692,6 +1693,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1718,7 +1724,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940504</v>
+        <v>111940514</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1763,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575123.1609921471</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R11" t="n">
-        <v>6633783.510092617</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1835,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940531</v>
+        <v>111940490</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1847,31 +1853,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1880,13 +1886,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575219.8730028294</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R12" t="n">
-        <v>6633957.433703677</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1952,10 +1958,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940536</v>
+        <v>111940492</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1964,31 +1970,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -1997,13 +2003,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575145.599272102</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R13" t="n">
-        <v>6633819.665229536</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2069,10 +2075,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940545</v>
+        <v>111940519</v>
       </c>
       <c r="B14" t="n">
-        <v>89807</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2081,38 +2087,43 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5321</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P14" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575064.8979840317</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R14" t="n">
-        <v>6633949.772658374</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2157,18 +2168,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC14" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD14" t="b">
         <v>0</v>
       </c>
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2187,10 +2192,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940540</v>
+        <v>111940501</v>
       </c>
       <c r="B15" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2199,31 +2204,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2232,10 +2237,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575066.3157799508</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R15" t="n">
-        <v>6633904.547837113</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2304,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940497</v>
+        <v>111940495</v>
       </c>
       <c r="B16" t="n">
-        <v>8367</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2316,31 +2321,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>106554</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2349,13 +2354,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575056.384174044</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R16" t="n">
-        <v>6633922.448560039</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2421,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940519</v>
+        <v>111940497</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2433,31 +2438,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2466,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575314.8626831421</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R17" t="n">
-        <v>6633768.787645163</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2538,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940521</v>
+        <v>111940483</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2550,43 +2555,38 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575287.8594700412</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R18" t="n">
-        <v>6633709.407490551</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940522</v>
+        <v>111940520</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2700,10 +2700,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575286.8117221124</v>
+        <v>575342.6487655415</v>
       </c>
       <c r="R19" t="n">
-        <v>6633711.39763993</v>
+        <v>6633715.044159714</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2772,10 +2772,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940493</v>
+        <v>111940489</v>
       </c>
       <c r="B20" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2788,27 +2788,27 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="M20" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2817,10 +2817,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575245.8958250808</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R20" t="n">
-        <v>6633940.865181752</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S20" t="n">
         <v>50</v>
@@ -2889,10 +2889,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940489</v>
+        <v>111940533</v>
       </c>
       <c r="B21" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2901,31 +2901,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2934,13 +2934,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575219.8730028294</v>
+        <v>575184.9867731713</v>
       </c>
       <c r="R21" t="n">
-        <v>6633957.433703677</v>
+        <v>6633939.12875581</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3006,10 +3006,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940526</v>
+        <v>111940480</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,31 +3018,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3051,10 +3051,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575221.7572314964</v>
+        <v>575071.9837971994</v>
       </c>
       <c r="R22" t="n">
-        <v>6633814.670145035</v>
+        <v>6633798.565983936</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3123,10 +3123,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940481</v>
+        <v>111940536</v>
       </c>
       <c r="B23" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,31 +3135,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3168,10 +3168,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575297.4408873306</v>
+        <v>575145.599272102</v>
       </c>
       <c r="R23" t="n">
-        <v>6633982.134978426</v>
+        <v>6633819.665229536</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940492</v>
+        <v>111940524</v>
       </c>
       <c r="B25" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3369,31 +3369,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3402,13 +3402,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575320.8446553242</v>
+        <v>575235.5650616023</v>
       </c>
       <c r="R25" t="n">
-        <v>6633970.5421063</v>
+        <v>6633804.390335427</v>
       </c>
       <c r="S25" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3474,10 +3474,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940539</v>
+        <v>111940525</v>
       </c>
       <c r="B26" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3486,31 +3486,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3519,10 +3519,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575071.96347728</v>
+        <v>575228.3839428589</v>
       </c>
       <c r="R26" t="n">
-        <v>6633799.571240677</v>
+        <v>6633810.781705923</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940513</v>
+        <v>111940505</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3636,10 +3636,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575311.6275743864</v>
+        <v>575072.5234012236</v>
       </c>
       <c r="R27" t="n">
-        <v>6633903.480557631</v>
+        <v>6633821.707174866</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3708,10 +3708,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940527</v>
+        <v>111940544</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3720,31 +3720,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3753,10 +3753,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575243.4452991589</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R28" t="n">
-        <v>6633912.657744031</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3825,10 +3825,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940516</v>
+        <v>111940478</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3837,43 +3837,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575280.599196161</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R29" t="n">
-        <v>6633794.240529041</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3942,10 +3937,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940491</v>
+        <v>111940540</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3954,31 +3949,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3987,13 +3982,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575322.561193137</v>
+        <v>575066.3157799508</v>
       </c>
       <c r="R30" t="n">
-        <v>6633910.741786715</v>
+        <v>6633904.547837113</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4059,10 +4054,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940495</v>
+        <v>111940545</v>
       </c>
       <c r="B31" t="n">
-        <v>56414</v>
+        <v>89807</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4071,46 +4066,41 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100049</v>
+        <v>5321</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575219.8730028294</v>
+        <v>575064.8979840317</v>
       </c>
       <c r="R31" t="n">
-        <v>6633957.433703677</v>
+        <v>6633949.772658374</v>
       </c>
       <c r="S31" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4152,12 +4142,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
+      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4176,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940523</v>
+        <v>111940494</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4188,31 +4184,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4221,13 +4217,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575244.3641672247</v>
+        <v>575226.3903755767</v>
       </c>
       <c r="R32" t="n">
-        <v>6633767.861525966</v>
+        <v>6633809.735658599</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4293,7 +4289,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940524</v>
+        <v>111940513</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4338,10 +4334,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575235.5650616023</v>
+        <v>575311.6275743864</v>
       </c>
       <c r="R33" t="n">
-        <v>6633804.390335427</v>
+        <v>6633903.480557631</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4410,10 +4406,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940510</v>
+        <v>111940541</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4422,31 +4418,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4455,10 +4451,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575349.3621255655</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R34" t="n">
-        <v>6634004.80887842</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4527,10 +4523,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940480</v>
+        <v>111940488</v>
       </c>
       <c r="B35" t="n">
-        <v>5135</v>
+        <v>56543</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4539,31 +4535,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>105930</v>
+        <v>103021</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4572,13 +4568,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575071.9837971994</v>
+        <v>575339.293738773</v>
       </c>
       <c r="R35" t="n">
-        <v>6633798.565983936</v>
+        <v>6633681.788066016</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4644,10 +4640,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940514</v>
+        <v>111940538</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>5295</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4656,31 +4652,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4689,10 +4685,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575319.6830904693</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R36" t="n">
-        <v>6633903.643923754</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4735,6 +4731,11 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC36" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4761,7 +4762,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940508</v>
+        <v>111940511</v>
       </c>
       <c r="B37" t="n">
         <v>96348</v>
@@ -4806,10 +4807,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575087.1298778135</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R37" t="n">
-        <v>6633846.64108369</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4878,10 +4879,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940483</v>
+        <v>111940485</v>
       </c>
       <c r="B38" t="n">
-        <v>89405</v>
+        <v>89369</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4890,25 +4891,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1202</v>
+        <v>5447</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4918,10 +4919,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575123.1609921471</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R38" t="n">
-        <v>6633783.510092617</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4990,7 +4991,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940525</v>
+        <v>111940516</v>
       </c>
       <c r="B39" t="n">
         <v>96348</v>
@@ -5035,10 +5036,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575228.3839428589</v>
+        <v>575280.599196161</v>
       </c>
       <c r="R39" t="n">
-        <v>6633810.781705923</v>
+        <v>6633794.240529041</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5107,10 +5108,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940494</v>
+        <v>111940496</v>
       </c>
       <c r="B40" t="n">
-        <v>56414</v>
+        <v>8367</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5119,31 +5120,31 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="M40" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
@@ -5152,13 +5153,13 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575226.3903755767</v>
+        <v>575061.3826721595</v>
       </c>
       <c r="R40" t="n">
-        <v>6633809.735658599</v>
+        <v>6633899.419929879</v>
       </c>
       <c r="S40" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T40" t="inlineStr">
         <is>
@@ -5224,10 +5225,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940479</v>
+        <v>111940484</v>
       </c>
       <c r="B41" t="n">
-        <v>94134</v>
+        <v>89405</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5240,21 +5241,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5264,10 +5265,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575161.9698024652</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R41" t="n">
-        <v>6633931.623422439</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5336,10 +5337,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940478</v>
+        <v>111940543</v>
       </c>
       <c r="B42" t="n">
-        <v>94134</v>
+        <v>5113</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5348,38 +5349,43 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>53</v>
+        <v>100526</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575283.7160419452</v>
+        <v>575298.5089502139</v>
       </c>
       <c r="R42" t="n">
-        <v>6633814.417083396</v>
+        <v>6633979.139770023</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5448,10 +5454,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940509</v>
+        <v>111940493</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5460,31 +5466,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5493,13 +5499,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575099.6870508653</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R43" t="n">
-        <v>6633898.183036338</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5565,10 +5571,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940482</v>
+        <v>111940479</v>
       </c>
       <c r="B44" t="n">
-        <v>88819</v>
+        <v>94134</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5577,25 +5583,25 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5685</v>
+        <v>53</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5605,10 +5611,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575188.9702964281</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R44" t="n">
-        <v>6633767.242506729</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5651,11 +5657,6 @@
       <c r="AB44" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5682,7 +5683,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940520</v>
+        <v>111940522</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5727,10 +5728,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575342.6487655415</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R45" t="n">
-        <v>6633715.044159714</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5799,10 +5800,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940484</v>
+        <v>111940508</v>
       </c>
       <c r="B46" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5811,38 +5812,43 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575071.96347728</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R46" t="n">
-        <v>6633799.571240677</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5911,10 +5917,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940543</v>
+        <v>111940504</v>
       </c>
       <c r="B47" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5923,31 +5929,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5956,10 +5962,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575298.5089502139</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R47" t="n">
-        <v>6633979.139770023</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6028,7 +6034,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940533</v>
+        <v>111940528</v>
       </c>
       <c r="B48" t="n">
         <v>96348</v>
@@ -6073,10 +6079,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575184.9867731713</v>
+        <v>575243.4452991589</v>
       </c>
       <c r="R48" t="n">
-        <v>6633939.12875581</v>
+        <v>6633912.657744031</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6145,7 +6151,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940505</v>
+        <v>111940523</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6190,10 +6196,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575072.5234012236</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R49" t="n">
-        <v>6633821.707174866</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6262,10 +6268,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940538</v>
+        <v>111940539</v>
       </c>
       <c r="B50" t="n">
-        <v>5295</v>
+        <v>5113</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6274,31 +6280,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>101728</v>
+        <v>100526</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6307,10 +6313,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575066.0471405423</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R50" t="n">
-        <v>6633942.75649225</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6353,11 +6359,6 @@
       <c r="AB50" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6384,10 +6385,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940487</v>
+        <v>111940521</v>
       </c>
       <c r="B51" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6396,38 +6397,43 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575331.3240653488</v>
+        <v>575287.8594700412</v>
       </c>
       <c r="R51" t="n">
-        <v>6633900.863105135</v>
+        <v>6633709.407490551</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6496,7 +6502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940515</v>
+        <v>111940535</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6541,10 +6547,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575286.0686730816</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R52" t="n">
-        <v>6633872.290124508</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6613,10 +6619,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940512</v>
+        <v>111940487</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6625,43 +6631,38 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575360.7812332346</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R53" t="n">
-        <v>6633963.30730504</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6730,10 +6731,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940544</v>
+        <v>111940512</v>
       </c>
       <c r="B54" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6742,31 +6743,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6775,10 +6776,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575314.8626831421</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R54" t="n">
-        <v>6633768.787645163</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6847,10 +6848,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940511</v>
+        <v>111940481</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6859,31 +6860,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6892,10 +6893,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575364.7477283181</v>
+        <v>575297.4408873306</v>
       </c>
       <c r="R55" t="n">
-        <v>6633966.404677297</v>
+        <v>6633982.134978426</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6964,10 +6965,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940485</v>
+        <v>111940515</v>
       </c>
       <c r="B56" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6976,38 +6977,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575282.2242737275</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R56" t="n">
-        <v>6633863.161328426</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7076,10 +7082,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940488</v>
+        <v>111940510</v>
       </c>
       <c r="B57" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7088,31 +7094,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7121,13 +7127,13 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575339.293738773</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R57" t="n">
-        <v>6633681.788066016</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S57" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7193,10 +7199,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940541</v>
+        <v>111940509</v>
       </c>
       <c r="B58" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7205,31 +7211,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7238,10 +7244,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575226.321789555</v>
+        <v>575099.6870508653</v>
       </c>
       <c r="R58" t="n">
-        <v>6633937.451738381</v>
+        <v>6633898.183036338</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7307,6 +7313,240 @@
         </is>
       </c>
       <c r="AY58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>111940491</v>
+      </c>
+      <c r="B59" t="n">
+        <v>56414</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>575322.561193137</v>
+      </c>
+      <c r="R59" t="n">
+        <v>6633910.741786715</v>
+      </c>
+      <c r="S59" t="n">
+        <v>50</v>
+      </c>
+      <c r="T59" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V59" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W59" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y59" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA59" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB59" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT59" t="inlineStr"/>
+      <c r="AW59" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX59" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>111940526</v>
+      </c>
+      <c r="B60" t="n">
+        <v>96348</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>220787</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Knärot</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Goodyera repens</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>(L.) R. Br.</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Kronmossberget 100m S, Vstm</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>575221.7572314964</v>
+      </c>
+      <c r="R60" t="n">
+        <v>6633814.670145035</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>Sala</t>
+        </is>
+      </c>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>Västmanland</t>
+        </is>
+      </c>
+      <c r="W60" t="inlineStr">
+        <is>
+          <t>Fläckebo</t>
+        </is>
+      </c>
+      <c r="Y60" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="Z60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA60" t="inlineStr">
+        <is>
+          <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AB60" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT60" t="inlineStr"/>
+      <c r="AW60" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AX60" t="inlineStr">
+        <is>
+          <t>Erik Berg</t>
+        </is>
+      </c>
+      <c r="AY60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -5683,7 +5683,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940522</v>
+        <v>111940504</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575286.8117221124</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R45" t="n">
-        <v>6633711.39763993</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940508</v>
+        <v>111940522</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575087.1298778135</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R46" t="n">
-        <v>6633846.64108369</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940504</v>
+        <v>111940508</v>
       </c>
       <c r="B47" t="n">
         <v>96348</v>
@@ -5962,10 +5962,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575123.1609921471</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R47" t="n">
-        <v>6633783.510092617</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891799</v>
+        <v>111891797</v>
       </c>
       <c r="B2" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575311.1894760416</v>
+        <v>575308.3438281321</v>
       </c>
       <c r="R2" t="n">
-        <v>6633676.692420599</v>
+        <v>6633742.507718229</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891795</v>
+        <v>111891799</v>
       </c>
       <c r="B3" t="n">
-        <v>89425</v>
+        <v>4711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -809,38 +809,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575340.2933948777</v>
+        <v>575311.1894760416</v>
       </c>
       <c r="R3" t="n">
-        <v>6633831.152179351</v>
+        <v>6633676.692420599</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -1021,10 +1026,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891797</v>
+        <v>111891795</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>89425</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1033,43 +1038,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575308.3438281321</v>
+        <v>575340.2933948777</v>
       </c>
       <c r="R5" t="n">
-        <v>6633742.507718229</v>
+        <v>6633831.152179351</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940532</v>
+        <v>111940491</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,31 +1502,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575219.8730028294</v>
+        <v>575322.561193137</v>
       </c>
       <c r="R9" t="n">
-        <v>6633957.433703677</v>
+        <v>6633910.741786715</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940482</v>
+        <v>111940517</v>
       </c>
       <c r="B10" t="n">
-        <v>88819</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,38 +1619,43 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P10" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575188.9702964281</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R10" t="n">
-        <v>6633767.242506729</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1693,11 +1698,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940514</v>
+        <v>111940487</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,43 +1736,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575319.6830904693</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R11" t="n">
-        <v>6633903.643923754</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1841,10 +1836,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940490</v>
+        <v>111940545</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>89807</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,46 +1848,41 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>5321</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575245.8958250808</v>
+        <v>575064.8979840317</v>
       </c>
       <c r="R12" t="n">
-        <v>6633940.865181752</v>
+        <v>6633949.772658374</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1934,12 +1924,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1958,10 +1954,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940492</v>
+        <v>111940514</v>
       </c>
       <c r="B13" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1970,31 +1966,31 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
@@ -2003,13 +1999,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575320.8446553242</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R13" t="n">
-        <v>6633970.5421063</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S13" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2075,7 +2071,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940519</v>
+        <v>111940506</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2120,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575314.8626831421</v>
+        <v>575087.3636053291</v>
       </c>
       <c r="R14" t="n">
-        <v>6633768.787645163</v>
+        <v>6633835.080760521</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2192,10 +2188,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940501</v>
+        <v>111940492</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2204,31 +2200,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2237,13 +2233,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575188.9702964281</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R15" t="n">
-        <v>6633767.242506729</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S15" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2309,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940495</v>
+        <v>111940524</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,31 +2317,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2354,13 +2350,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575219.8730028294</v>
+        <v>575235.5650616023</v>
       </c>
       <c r="R16" t="n">
-        <v>6633957.433703677</v>
+        <v>6633804.390335427</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2426,10 +2422,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940497</v>
+        <v>111940522</v>
       </c>
       <c r="B17" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,31 +2434,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2471,10 +2467,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575056.384174044</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R17" t="n">
-        <v>6633922.448560039</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2543,10 +2539,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940483</v>
+        <v>111940525</v>
       </c>
       <c r="B18" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2555,38 +2551,43 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P18" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575123.1609921471</v>
+        <v>575228.3839428589</v>
       </c>
       <c r="R18" t="n">
-        <v>6633783.510092617</v>
+        <v>6633810.781705923</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2655,10 +2656,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940520</v>
+        <v>111940497</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2667,31 +2668,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2700,10 +2701,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575342.6487655415</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R19" t="n">
-        <v>6633715.044159714</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2772,10 +2773,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940489</v>
+        <v>111940484</v>
       </c>
       <c r="B20" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2788,42 +2789,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575219.8730028294</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R20" t="n">
-        <v>6633957.433703677</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2889,7 +2885,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940533</v>
+        <v>111940515</v>
       </c>
       <c r="B21" t="n">
         <v>96348</v>
@@ -2934,10 +2930,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575184.9867731713</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R21" t="n">
-        <v>6633939.12875581</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3006,10 +3002,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940480</v>
+        <v>111940512</v>
       </c>
       <c r="B22" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3018,31 +3014,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -3051,10 +3047,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575071.9837971994</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R22" t="n">
-        <v>6633798.565983936</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3123,10 +3119,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940536</v>
+        <v>111940538</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>5295</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,31 +3131,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3168,10 +3164,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575145.599272102</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R23" t="n">
-        <v>6633819.665229536</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3214,6 +3210,11 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3240,7 +3241,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940506</v>
+        <v>111940531</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3285,10 +3286,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575087.3636053291</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R24" t="n">
-        <v>6633835.080760521</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3357,7 +3358,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940524</v>
+        <v>111940535</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3402,10 +3403,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575235.5650616023</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R25" t="n">
-        <v>6633804.390335427</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3474,7 +3475,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940525</v>
+        <v>111940501</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3519,10 +3520,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575228.3839428589</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R26" t="n">
-        <v>6633810.781705923</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3591,7 +3592,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940505</v>
+        <v>111940527</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3636,10 +3637,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575072.5234012236</v>
+        <v>575243.4452991589</v>
       </c>
       <c r="R27" t="n">
-        <v>6633821.707174866</v>
+        <v>6633912.657744031</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3708,10 +3709,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940544</v>
+        <v>111940505</v>
       </c>
       <c r="B28" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3720,31 +3721,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3753,10 +3754,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575314.8626831421</v>
+        <v>575072.5234012236</v>
       </c>
       <c r="R28" t="n">
-        <v>6633768.787645163</v>
+        <v>6633821.707174866</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3825,10 +3826,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940478</v>
+        <v>111940488</v>
       </c>
       <c r="B29" t="n">
-        <v>94134</v>
+        <v>56543</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3841,37 +3842,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>53</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575283.7160419452</v>
+        <v>575339.293738773</v>
       </c>
       <c r="R29" t="n">
-        <v>6633814.417083396</v>
+        <v>6633681.788066016</v>
       </c>
       <c r="S29" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3937,10 +3943,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940540</v>
+        <v>111940508</v>
       </c>
       <c r="B30" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3949,31 +3955,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3982,10 +3988,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575066.3157799508</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R30" t="n">
-        <v>6633904.547837113</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4054,10 +4060,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940545</v>
+        <v>111940539</v>
       </c>
       <c r="B31" t="n">
-        <v>89807</v>
+        <v>5113</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4070,34 +4076,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>5321</v>
+        <v>100526</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575064.8979840317</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R31" t="n">
-        <v>6633949.772658374</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4142,18 +4153,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD31" t="b">
         <v>0</v>
       </c>
       <c r="AE31" t="b">
         <v>0</v>
       </c>
-      <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="b">
         <v>0</v>
       </c>
@@ -4172,10 +4177,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940494</v>
+        <v>111940544</v>
       </c>
       <c r="B32" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4184,31 +4189,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="M32" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4217,13 +4222,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575226.3903755767</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R32" t="n">
-        <v>6633809.735658599</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S32" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4289,10 +4294,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940513</v>
+        <v>111940493</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4301,31 +4306,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4334,13 +4339,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575311.6275743864</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R33" t="n">
-        <v>6633903.480557631</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4406,7 +4411,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940541</v>
+        <v>111940543</v>
       </c>
       <c r="B34" t="n">
         <v>5113</v>
@@ -4451,10 +4456,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575226.321789555</v>
+        <v>575298.5089502139</v>
       </c>
       <c r="R34" t="n">
-        <v>6633937.451738381</v>
+        <v>6633979.139770023</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4523,10 +4528,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940488</v>
+        <v>111940523</v>
       </c>
       <c r="B35" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4535,31 +4540,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4568,13 +4573,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575339.293738773</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R35" t="n">
-        <v>6633681.788066016</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S35" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4640,10 +4645,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940538</v>
+        <v>111940482</v>
       </c>
       <c r="B36" t="n">
-        <v>5295</v>
+        <v>88819</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4652,43 +4657,38 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>101728</v>
+        <v>5685</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575066.0471405423</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R36" t="n">
-        <v>6633942.75649225</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4735,7 +4735,7 @@
       </c>
       <c r="AC36" t="inlineStr">
         <is>
-          <t>Älde kläckhål och puppkammare</t>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4762,10 +4762,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940511</v>
+        <v>111940479</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4774,43 +4774,38 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575364.7477283181</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R37" t="n">
-        <v>6633966.404677297</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4879,10 +4874,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940485</v>
+        <v>111940478</v>
       </c>
       <c r="B38" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4891,25 +4886,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -4919,10 +4914,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575282.2242737275</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R38" t="n">
-        <v>6633863.161328426</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4991,10 +4986,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940516</v>
+        <v>111940495</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5003,31 +4998,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5036,13 +5031,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575280.599196161</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R39" t="n">
-        <v>6633794.240529041</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5108,10 +5103,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940496</v>
+        <v>111940485</v>
       </c>
       <c r="B40" t="n">
-        <v>8367</v>
+        <v>89369</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,39 +5119,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>106554</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575061.3826721595</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R40" t="n">
-        <v>6633899.419929879</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5225,10 +5215,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940484</v>
+        <v>111940533</v>
       </c>
       <c r="B41" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5237,38 +5227,43 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P41" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575071.96347728</v>
+        <v>575184.9867731713</v>
       </c>
       <c r="R41" t="n">
-        <v>6633799.571240677</v>
+        <v>6633939.12875581</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5337,10 +5332,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940543</v>
+        <v>111940489</v>
       </c>
       <c r="B42" t="n">
-        <v>5113</v>
+        <v>56543</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5349,31 +5344,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>100526</v>
+        <v>103021</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5382,13 +5377,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575298.5089502139</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R42" t="n">
-        <v>6633979.139770023</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S42" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5454,10 +5449,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940493</v>
+        <v>111940526</v>
       </c>
       <c r="B43" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5466,31 +5461,31 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
@@ -5499,13 +5494,13 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575245.8958250808</v>
+        <v>575221.7572314964</v>
       </c>
       <c r="R43" t="n">
-        <v>6633940.865181752</v>
+        <v>6633814.670145035</v>
       </c>
       <c r="S43" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5571,10 +5566,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940479</v>
+        <v>111940480</v>
       </c>
       <c r="B44" t="n">
-        <v>94134</v>
+        <v>5135</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5583,38 +5578,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>105930</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575161.9698024652</v>
+        <v>575071.9837971994</v>
       </c>
       <c r="R44" t="n">
-        <v>6633931.623422439</v>
+        <v>6633798.565983936</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5683,7 +5683,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940504</v>
+        <v>111940511</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575123.1609921471</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R45" t="n">
-        <v>6633783.510092617</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5800,7 +5800,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940522</v>
+        <v>111940513</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5845,10 +5845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575286.8117221124</v>
+        <v>575311.6275743864</v>
       </c>
       <c r="R46" t="n">
-        <v>6633711.39763993</v>
+        <v>6633903.480557631</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5917,7 +5917,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940508</v>
+        <v>111940504</v>
       </c>
       <c r="B47" t="n">
         <v>96348</v>
@@ -5962,10 +5962,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575087.1298778135</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R47" t="n">
-        <v>6633846.64108369</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6034,7 +6034,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940528</v>
+        <v>111940509</v>
       </c>
       <c r="B48" t="n">
         <v>96348</v>
@@ -6079,10 +6079,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575243.4452991589</v>
+        <v>575099.6870508653</v>
       </c>
       <c r="R48" t="n">
-        <v>6633912.657744031</v>
+        <v>6633898.183036338</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6151,7 +6151,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940523</v>
+        <v>111940520</v>
       </c>
       <c r="B49" t="n">
         <v>96348</v>
@@ -6196,10 +6196,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575244.3641672247</v>
+        <v>575342.6487655415</v>
       </c>
       <c r="R49" t="n">
-        <v>6633767.861525966</v>
+        <v>6633715.044159714</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6268,10 +6268,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940539</v>
+        <v>111940483</v>
       </c>
       <c r="B50" t="n">
-        <v>5113</v>
+        <v>89405</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6280,43 +6280,38 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100526</v>
+        <v>1202</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575071.96347728</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R50" t="n">
-        <v>6633799.571240677</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6385,10 +6380,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940521</v>
+        <v>111940540</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6397,31 +6392,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6430,10 +6425,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575287.8594700412</v>
+        <v>575066.3157799508</v>
       </c>
       <c r="R51" t="n">
-        <v>6633709.407490551</v>
+        <v>6633904.547837113</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6502,7 +6497,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940535</v>
+        <v>111940521</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6547,10 +6542,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575120.5423730967</v>
+        <v>575287.8594700412</v>
       </c>
       <c r="R52" t="n">
-        <v>6633838.265864038</v>
+        <v>6633709.407490551</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6619,10 +6614,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940487</v>
+        <v>111940516</v>
       </c>
       <c r="B53" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6631,38 +6626,43 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P53" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575331.3240653488</v>
+        <v>575280.599196161</v>
       </c>
       <c r="R53" t="n">
-        <v>6633900.863105135</v>
+        <v>6633794.240529041</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6731,7 +6731,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940512</v>
+        <v>111940510</v>
       </c>
       <c r="B54" t="n">
         <v>96348</v>
@@ -6776,10 +6776,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575360.7812332346</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R54" t="n">
-        <v>6633963.30730504</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6848,10 +6848,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940481</v>
+        <v>111940490</v>
       </c>
       <c r="B55" t="n">
-        <v>5135</v>
+        <v>56543</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6860,31 +6860,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>105930</v>
+        <v>103021</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6893,13 +6893,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575297.4408873306</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R55" t="n">
-        <v>6633982.134978426</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6965,10 +6965,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940515</v>
+        <v>111940496</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6977,31 +6977,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7010,10 +7010,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575286.0686730816</v>
+        <v>575061.3826721595</v>
       </c>
       <c r="R56" t="n">
-        <v>6633872.290124508</v>
+        <v>6633899.419929879</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940510</v>
+        <v>111940481</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7094,31 +7094,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7127,10 +7127,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575349.3621255655</v>
+        <v>575297.4408873306</v>
       </c>
       <c r="R57" t="n">
-        <v>6634004.80887842</v>
+        <v>6633982.134978426</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7199,10 +7199,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940509</v>
+        <v>111940541</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7211,31 +7211,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7244,10 +7244,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575099.6870508653</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R58" t="n">
-        <v>6633898.183036338</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7316,10 +7316,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940491</v>
+        <v>111940536</v>
       </c>
       <c r="B59" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7328,31 +7328,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7361,13 +7361,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575322.561193137</v>
+        <v>575145.599272102</v>
       </c>
       <c r="R59" t="n">
-        <v>6633910.741786715</v>
+        <v>6633819.665229536</v>
       </c>
       <c r="S59" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7433,10 +7433,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940526</v>
+        <v>111940494</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7445,31 +7445,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7478,13 +7478,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575221.7572314964</v>
+        <v>575226.3903755767</v>
       </c>
       <c r="R60" t="n">
-        <v>6633814.670145035</v>
+        <v>6633809.735658599</v>
       </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891797</v>
+        <v>111891795</v>
       </c>
       <c r="B2" t="n">
-        <v>5113</v>
+        <v>89425</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575308.3438281321</v>
+        <v>575340.2933948777</v>
       </c>
       <c r="R2" t="n">
-        <v>6633742.507718229</v>
+        <v>6633831.152179351</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -914,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891796</v>
+        <v>111891798</v>
       </c>
       <c r="B4" t="n">
-        <v>89405</v>
+        <v>90018</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -926,25 +921,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -954,10 +949,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575341.8305702346</v>
+        <v>575405.8647675795</v>
       </c>
       <c r="R4" t="n">
-        <v>6633805.036052238</v>
+        <v>6633801.810108438</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1026,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891795</v>
+        <v>111891797</v>
       </c>
       <c r="B5" t="n">
-        <v>89425</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1038,38 +1033,43 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575340.2933948777</v>
+        <v>575308.3438281321</v>
       </c>
       <c r="R5" t="n">
-        <v>6633831.152179351</v>
+        <v>6633742.507718229</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1138,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891798</v>
+        <v>111891796</v>
       </c>
       <c r="B6" t="n">
-        <v>90018</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1150,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1339</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1178,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575405.8647675795</v>
+        <v>575341.8305702346</v>
       </c>
       <c r="R6" t="n">
-        <v>6633801.810108438</v>
+        <v>6633805.036052238</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940491</v>
+        <v>111940514</v>
       </c>
       <c r="B9" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,31 +1502,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1535,13 +1535,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575322.561193137</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R9" t="n">
-        <v>6633910.741786715</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940517</v>
+        <v>111940496</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,31 +1619,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575314.8626831421</v>
+        <v>575061.3826721595</v>
       </c>
       <c r="R10" t="n">
-        <v>6633768.787645163</v>
+        <v>6633899.419929879</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1724,10 +1724,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940487</v>
+        <v>111940518</v>
       </c>
       <c r="B11" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,38 +1736,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575331.3240653488</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R11" t="n">
-        <v>6633900.863105135</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1836,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940545</v>
+        <v>111940509</v>
       </c>
       <c r="B12" t="n">
-        <v>89807</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1848,38 +1853,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5321</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575064.8979840317</v>
+        <v>575099.6870508653</v>
       </c>
       <c r="R12" t="n">
-        <v>6633949.772658374</v>
+        <v>6633898.183036338</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1924,18 +1934,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -1954,7 +1958,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940514</v>
+        <v>111940503</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1999,10 +2003,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575319.6830904693</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R13" t="n">
-        <v>6633903.643923754</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2071,10 +2075,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940506</v>
+        <v>111940539</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2083,31 +2087,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2116,10 +2120,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575087.3636053291</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R14" t="n">
-        <v>6633835.080760521</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2188,10 +2192,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940492</v>
+        <v>111940524</v>
       </c>
       <c r="B15" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2200,31 +2204,31 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2233,13 +2237,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575320.8446553242</v>
+        <v>575235.5650616023</v>
       </c>
       <c r="R15" t="n">
-        <v>6633970.5421063</v>
+        <v>6633804.390335427</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2305,10 +2309,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940524</v>
+        <v>111940544</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2317,31 +2321,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2350,10 +2354,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575235.5650616023</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R16" t="n">
-        <v>6633804.390335427</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2422,10 +2426,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940522</v>
+        <v>111940543</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2434,31 +2438,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2467,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575286.8117221124</v>
+        <v>575298.5089502139</v>
       </c>
       <c r="R17" t="n">
-        <v>6633711.39763993</v>
+        <v>6633979.139770023</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2539,10 +2543,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940525</v>
+        <v>111940493</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2551,31 +2555,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2584,13 +2588,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575228.3839428589</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R18" t="n">
-        <v>6633810.781705923</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2656,10 +2660,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940497</v>
+        <v>111940485</v>
       </c>
       <c r="B19" t="n">
-        <v>8367</v>
+        <v>89369</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,39 +2676,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>106554</v>
+        <v>5447</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575056.384174044</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R19" t="n">
-        <v>6633922.448560039</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2773,7 +2772,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940484</v>
+        <v>111940483</v>
       </c>
       <c r="B20" t="n">
         <v>89405</v>
@@ -2813,10 +2812,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575071.96347728</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R20" t="n">
-        <v>6633799.571240677</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2885,10 +2884,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940515</v>
+        <v>111940478</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2897,43 +2896,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575286.0686730816</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R21" t="n">
-        <v>6633872.290124508</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3002,7 +2996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940512</v>
+        <v>111940526</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3047,10 +3041,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575360.7812332346</v>
+        <v>575221.7572314964</v>
       </c>
       <c r="R22" t="n">
-        <v>6633963.30730504</v>
+        <v>6633814.670145035</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3119,10 +3113,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940538</v>
+        <v>111940495</v>
       </c>
       <c r="B23" t="n">
-        <v>5295</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3135,27 +3129,27 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>101728</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="M23" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3164,13 +3158,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575066.0471405423</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R23" t="n">
-        <v>6633942.75649225</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3210,11 +3204,6 @@
       <c r="AB23" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3241,7 +3230,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940531</v>
+        <v>111940521</v>
       </c>
       <c r="B24" t="n">
         <v>96348</v>
@@ -3286,10 +3275,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575219.8730028294</v>
+        <v>575287.8594700412</v>
       </c>
       <c r="R24" t="n">
-        <v>6633957.433703677</v>
+        <v>6633709.407490551</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3358,10 +3347,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940535</v>
+        <v>111940538</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>5295</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3370,31 +3359,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3403,10 +3392,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575120.5423730967</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R25" t="n">
-        <v>6633838.265864038</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3449,6 +3438,11 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3475,10 +3469,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940501</v>
+        <v>111940494</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3487,31 +3481,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3520,13 +3514,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575188.9702964281</v>
+        <v>575226.3903755767</v>
       </c>
       <c r="R26" t="n">
-        <v>6633767.242506729</v>
+        <v>6633809.735658599</v>
       </c>
       <c r="S26" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3592,7 +3586,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940527</v>
+        <v>111940504</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3637,10 +3631,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575243.4452991589</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R27" t="n">
-        <v>6633912.657744031</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3709,10 +3703,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940505</v>
+        <v>111940490</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3721,31 +3715,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3754,13 +3748,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575072.5234012236</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R28" t="n">
-        <v>6633821.707174866</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3826,10 +3820,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940488</v>
+        <v>111940491</v>
       </c>
       <c r="B29" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3842,27 +3836,27 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3871,10 +3865,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575339.293738773</v>
+        <v>575322.561193137</v>
       </c>
       <c r="R29" t="n">
-        <v>6633681.788066016</v>
+        <v>6633910.741786715</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3943,7 +3937,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940508</v>
+        <v>111940527</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3988,10 +3982,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575087.1298778135</v>
+        <v>575243.4452991589</v>
       </c>
       <c r="R30" t="n">
-        <v>6633846.64108369</v>
+        <v>6633912.657744031</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4060,10 +4054,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940539</v>
+        <v>111940515</v>
       </c>
       <c r="B31" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4072,31 +4066,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -4105,10 +4099,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575071.96347728</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R31" t="n">
-        <v>6633799.571240677</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4177,10 +4171,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940544</v>
+        <v>111940511</v>
       </c>
       <c r="B32" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4189,31 +4183,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4222,10 +4216,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575314.8626831421</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R32" t="n">
-        <v>6633768.787645163</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -4294,10 +4288,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940493</v>
+        <v>111940510</v>
       </c>
       <c r="B33" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4306,31 +4300,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4339,13 +4333,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575245.8958250808</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R33" t="n">
-        <v>6633940.865181752</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S33" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4411,10 +4405,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940543</v>
+        <v>111940531</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4423,31 +4417,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4456,10 +4450,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575298.5089502139</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R34" t="n">
-        <v>6633979.139770023</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4528,7 +4522,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940523</v>
+        <v>111940535</v>
       </c>
       <c r="B35" t="n">
         <v>96348</v>
@@ -4573,10 +4567,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575244.3641672247</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R35" t="n">
-        <v>6633767.861525966</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4645,10 +4639,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940482</v>
+        <v>111940505</v>
       </c>
       <c r="B36" t="n">
-        <v>88819</v>
+        <v>96348</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4657,38 +4651,43 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P36" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575188.9702964281</v>
+        <v>575072.5234012236</v>
       </c>
       <c r="R36" t="n">
-        <v>6633767.242506729</v>
+        <v>6633821.707174866</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4731,11 +4730,6 @@
       <c r="AB36" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC36" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4762,10 +4756,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940479</v>
+        <v>111940513</v>
       </c>
       <c r="B37" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4774,38 +4768,43 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575161.9698024652</v>
+        <v>575311.6275743864</v>
       </c>
       <c r="R37" t="n">
-        <v>6633931.623422439</v>
+        <v>6633903.480557631</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4874,10 +4873,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940478</v>
+        <v>111940481</v>
       </c>
       <c r="B38" t="n">
-        <v>94134</v>
+        <v>5135</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4886,38 +4885,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>53</v>
+        <v>105930</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575283.7160419452</v>
+        <v>575297.4408873306</v>
       </c>
       <c r="R38" t="n">
-        <v>6633814.417083396</v>
+        <v>6633982.134978426</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4986,10 +4990,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940495</v>
+        <v>111940480</v>
       </c>
       <c r="B39" t="n">
-        <v>56414</v>
+        <v>5135</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4998,20 +5002,20 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>100049</v>
+        <v>105930</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -5022,7 +5026,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5031,13 +5035,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575219.8730028294</v>
+        <v>575071.9837971994</v>
       </c>
       <c r="R39" t="n">
-        <v>6633957.433703677</v>
+        <v>6633798.565983936</v>
       </c>
       <c r="S39" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -5103,10 +5107,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940485</v>
+        <v>111940536</v>
       </c>
       <c r="B40" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5115,38 +5119,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575282.2242737275</v>
+        <v>575145.599272102</v>
       </c>
       <c r="R40" t="n">
-        <v>6633863.161328426</v>
+        <v>6633819.665229536</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5215,7 +5224,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940533</v>
+        <v>111940508</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5260,10 +5269,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575184.9867731713</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R41" t="n">
-        <v>6633939.12875581</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5449,7 +5458,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940526</v>
+        <v>111940512</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5494,10 +5503,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575221.7572314964</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R43" t="n">
-        <v>6633814.670145035</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5566,10 +5575,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940480</v>
+        <v>111940523</v>
       </c>
       <c r="B44" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5578,31 +5587,31 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
@@ -5611,10 +5620,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575071.9837971994</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R44" t="n">
-        <v>6633798.565983936</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5683,10 +5692,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940511</v>
+        <v>111940545</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>89807</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5695,43 +5704,38 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>5321</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575364.7477283181</v>
+        <v>575064.8979840317</v>
       </c>
       <c r="R45" t="n">
-        <v>6633966.404677297</v>
+        <v>6633949.772658374</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5776,12 +5780,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
+      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5800,7 +5810,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940513</v>
+        <v>111940506</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5845,10 +5855,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575311.6275743864</v>
+        <v>575087.3636053291</v>
       </c>
       <c r="R46" t="n">
-        <v>6633903.480557631</v>
+        <v>6633835.080760521</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5917,10 +5927,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940504</v>
+        <v>111940492</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5929,31 +5939,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5962,13 +5972,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575123.1609921471</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R47" t="n">
-        <v>6633783.510092617</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6034,10 +6044,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940509</v>
+        <v>111940540</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6046,31 +6056,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6079,10 +6089,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575099.6870508653</v>
+        <v>575066.3157799508</v>
       </c>
       <c r="R48" t="n">
-        <v>6633898.183036338</v>
+        <v>6633904.547837113</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6151,10 +6161,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940520</v>
+        <v>111940479</v>
       </c>
       <c r="B49" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6163,43 +6173,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575342.6487655415</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R49" t="n">
-        <v>6633715.044159714</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6268,10 +6273,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940483</v>
+        <v>111940487</v>
       </c>
       <c r="B50" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6284,21 +6289,21 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
@@ -6308,10 +6313,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575123.1609921471</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R50" t="n">
-        <v>6633783.510092617</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6380,7 +6385,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940540</v>
+        <v>111940541</v>
       </c>
       <c r="B51" t="n">
         <v>5113</v>
@@ -6425,10 +6430,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575066.3157799508</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R51" t="n">
-        <v>6633904.547837113</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6497,7 +6502,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940521</v>
+        <v>111940525</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6542,10 +6547,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575287.8594700412</v>
+        <v>575228.3839428589</v>
       </c>
       <c r="R52" t="n">
-        <v>6633709.407490551</v>
+        <v>6633810.781705923</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6614,7 +6619,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940516</v>
+        <v>111940520</v>
       </c>
       <c r="B53" t="n">
         <v>96348</v>
@@ -6659,10 +6664,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575280.599196161</v>
+        <v>575342.6487655415</v>
       </c>
       <c r="R53" t="n">
-        <v>6633794.240529041</v>
+        <v>6633715.044159714</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6731,10 +6736,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940510</v>
+        <v>111940488</v>
       </c>
       <c r="B54" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6743,31 +6748,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6776,13 +6781,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575349.3621255655</v>
+        <v>575339.293738773</v>
       </c>
       <c r="R54" t="n">
-        <v>6634004.80887842</v>
+        <v>6633681.788066016</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6848,10 +6853,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940490</v>
+        <v>111940497</v>
       </c>
       <c r="B55" t="n">
-        <v>56543</v>
+        <v>8367</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6860,31 +6865,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>103021</v>
+        <v>106554</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6893,13 +6898,13 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575245.8958250808</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R55" t="n">
-        <v>6633940.865181752</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S55" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6965,10 +6970,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940496</v>
+        <v>111940484</v>
       </c>
       <c r="B56" t="n">
-        <v>8367</v>
+        <v>89405</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6977,43 +6982,38 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>106554</v>
+        <v>1202</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575061.3826721595</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R56" t="n">
-        <v>6633899.419929879</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7082,10 +7082,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940481</v>
+        <v>111940522</v>
       </c>
       <c r="B57" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7094,31 +7094,31 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -7127,10 +7127,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575297.4408873306</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R57" t="n">
-        <v>6633982.134978426</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7199,10 +7199,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940541</v>
+        <v>111940482</v>
       </c>
       <c r="B58" t="n">
-        <v>5113</v>
+        <v>88819</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7215,39 +7215,34 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100526</v>
+        <v>5685</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575226.321789555</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R58" t="n">
-        <v>6633937.451738381</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7290,6 +7285,11 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC58" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7316,7 +7316,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940536</v>
+        <v>111940516</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7361,10 +7361,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575145.599272102</v>
+        <v>575280.599196161</v>
       </c>
       <c r="R59" t="n">
-        <v>6633819.665229536</v>
+        <v>6633794.240529041</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7433,10 +7433,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940494</v>
+        <v>111940533</v>
       </c>
       <c r="B60" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7445,31 +7445,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7478,13 +7478,13 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575226.3903755767</v>
+        <v>575184.9867731713</v>
       </c>
       <c r="R60" t="n">
-        <v>6633809.735658599</v>
+        <v>6633939.12875581</v>
       </c>
       <c r="S60" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T60" t="inlineStr">
         <is>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -792,10 +792,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891799</v>
+        <v>111891796</v>
       </c>
       <c r="B3" t="n">
-        <v>4711</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,43 +804,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575311.1894760416</v>
+        <v>575341.8305702346</v>
       </c>
       <c r="R3" t="n">
-        <v>6633676.692420599</v>
+        <v>6633805.036052238</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891798</v>
+        <v>111891797</v>
       </c>
       <c r="B4" t="n">
-        <v>90018</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1339</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575405.8647675795</v>
+        <v>575308.3438281321</v>
       </c>
       <c r="R4" t="n">
-        <v>6633801.810108438</v>
+        <v>6633742.507718229</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891797</v>
+        <v>111891798</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>90018</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,39 +1037,34 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575308.3438281321</v>
+        <v>575405.8647675795</v>
       </c>
       <c r="R5" t="n">
-        <v>6633742.507718229</v>
+        <v>6633801.810108438</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1138,10 +1133,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891796</v>
+        <v>111891799</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,38 +1145,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575341.8305702346</v>
+        <v>575311.1894760416</v>
       </c>
       <c r="R6" t="n">
-        <v>6633805.036052238</v>
+        <v>6633676.692420599</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111914709</v>
+        <v>111914716</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111914716</v>
+        <v>111914709</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940514</v>
+        <v>111940539</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,31 +1502,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1535,10 +1535,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575319.6830904693</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R9" t="n">
-        <v>6633903.643923754</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1607,10 +1607,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940496</v>
+        <v>111940502</v>
       </c>
       <c r="B10" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1619,31 +1619,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1652,10 +1652,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575061.3826721595</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R10" t="n">
-        <v>6633899.419929879</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1724,7 +1724,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940518</v>
+        <v>111940528</v>
       </c>
       <c r="B11" t="n">
         <v>96348</v>
@@ -1769,10 +1769,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575314.8626831421</v>
+        <v>575243.4452991589</v>
       </c>
       <c r="R11" t="n">
-        <v>6633768.787645163</v>
+        <v>6633912.657744031</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1841,10 +1841,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940509</v>
+        <v>111940538</v>
       </c>
       <c r="B12" t="n">
-        <v>96348</v>
+        <v>5295</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,31 +1853,31 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,10 +1886,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575099.6870508653</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R12" t="n">
-        <v>6633898.183036338</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1932,6 +1932,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1958,7 +1963,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940503</v>
+        <v>111940509</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -2003,10 +2008,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575188.9702964281</v>
+        <v>575099.6870508653</v>
       </c>
       <c r="R13" t="n">
-        <v>6633767.242506729</v>
+        <v>6633898.183036338</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2075,10 +2080,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940539</v>
+        <v>111940536</v>
       </c>
       <c r="B14" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,31 +2092,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2120,10 +2125,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575071.96347728</v>
+        <v>575145.599272102</v>
       </c>
       <c r="R14" t="n">
-        <v>6633799.571240677</v>
+        <v>6633819.665229536</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2192,7 +2197,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940524</v>
+        <v>111940535</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2237,10 +2242,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575235.5650616023</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R15" t="n">
-        <v>6633804.390335427</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2309,10 +2314,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940544</v>
+        <v>111940505</v>
       </c>
       <c r="B16" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,31 +2326,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2354,10 +2359,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575314.8626831421</v>
+        <v>575072.5234012236</v>
       </c>
       <c r="R16" t="n">
-        <v>6633768.787645163</v>
+        <v>6633821.707174866</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2426,10 +2431,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940543</v>
+        <v>111940493</v>
       </c>
       <c r="B17" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2438,31 +2443,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2471,13 +2476,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575298.5089502139</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R17" t="n">
-        <v>6633979.139770023</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2543,10 +2548,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940493</v>
+        <v>111940524</v>
       </c>
       <c r="B18" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2555,31 +2560,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2588,13 +2593,13 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575245.8958250808</v>
+        <v>575235.5650616023</v>
       </c>
       <c r="R18" t="n">
-        <v>6633940.865181752</v>
+        <v>6633804.390335427</v>
       </c>
       <c r="S18" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T18" t="inlineStr">
         <is>
@@ -2660,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940485</v>
+        <v>111940523</v>
       </c>
       <c r="B19" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2672,38 +2677,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575282.2242737275</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R19" t="n">
-        <v>6633863.161328426</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2772,10 +2782,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940483</v>
+        <v>111940541</v>
       </c>
       <c r="B20" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2784,38 +2794,43 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575123.1609921471</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R20" t="n">
-        <v>6633783.510092617</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2884,10 +2899,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940478</v>
+        <v>111940510</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2896,38 +2911,43 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575283.7160419452</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R21" t="n">
-        <v>6633814.417083396</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2996,7 +3016,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940526</v>
+        <v>111940504</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3041,10 +3061,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575221.7572314964</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R22" t="n">
-        <v>6633814.670145035</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3113,10 +3133,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940495</v>
+        <v>111940478</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>94134</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3129,42 +3149,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>53</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575219.8730028294</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R23" t="n">
-        <v>6633957.433703677</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3230,10 +3245,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940521</v>
+        <v>111940489</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3242,31 +3257,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3275,13 +3290,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575287.8594700412</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R24" t="n">
-        <v>6633709.407490551</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S24" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3347,10 +3362,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940538</v>
+        <v>111940481</v>
       </c>
       <c r="B25" t="n">
-        <v>5295</v>
+        <v>5135</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3359,31 +3374,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>101728</v>
+        <v>105930</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="M25" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3392,10 +3407,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575066.0471405423</v>
+        <v>575297.4408873306</v>
       </c>
       <c r="R25" t="n">
-        <v>6633942.75649225</v>
+        <v>6633982.134978426</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3438,11 +3453,6 @@
       <c r="AB25" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC25" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3469,10 +3479,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940494</v>
+        <v>111940517</v>
       </c>
       <c r="B26" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3481,31 +3491,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3514,13 +3524,13 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575226.3903755767</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R26" t="n">
-        <v>6633809.735658599</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S26" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T26" t="inlineStr">
         <is>
@@ -3586,7 +3596,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940504</v>
+        <v>111940526</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3631,10 +3641,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575123.1609921471</v>
+        <v>575221.7572314964</v>
       </c>
       <c r="R27" t="n">
-        <v>6633783.510092617</v>
+        <v>6633814.670145035</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3703,10 +3713,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940490</v>
+        <v>111940540</v>
       </c>
       <c r="B28" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3715,31 +3725,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3748,13 +3758,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575245.8958250808</v>
+        <v>575066.3157799508</v>
       </c>
       <c r="R28" t="n">
-        <v>6633940.865181752</v>
+        <v>6633904.547837113</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3820,7 +3830,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940491</v>
+        <v>111940492</v>
       </c>
       <c r="B29" t="n">
         <v>56414</v>
@@ -3856,7 +3866,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3865,10 +3875,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575322.561193137</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R29" t="n">
-        <v>6633910.741786715</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3937,10 +3947,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940527</v>
+        <v>111940497</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3949,31 +3959,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3982,10 +3992,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575243.4452991589</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R30" t="n">
-        <v>6633912.657744031</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4054,7 +4064,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940515</v>
+        <v>111940514</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4099,10 +4109,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575286.0686730816</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R31" t="n">
-        <v>6633872.290124508</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4288,7 +4298,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940510</v>
+        <v>111940512</v>
       </c>
       <c r="B33" t="n">
         <v>96348</v>
@@ -4333,10 +4343,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575349.3621255655</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R33" t="n">
-        <v>6634004.80887842</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4405,10 +4415,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940531</v>
+        <v>111940491</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4417,31 +4427,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4450,13 +4460,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575219.8730028294</v>
+        <v>575322.561193137</v>
       </c>
       <c r="R34" t="n">
-        <v>6633957.433703677</v>
+        <v>6633910.741786715</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4522,10 +4532,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940535</v>
+        <v>111940485</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4534,43 +4544,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575120.5423730967</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R35" t="n">
-        <v>6633838.265864038</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4639,7 +4644,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940505</v>
+        <v>111940532</v>
       </c>
       <c r="B36" t="n">
         <v>96348</v>
@@ -4684,10 +4689,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575072.5234012236</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R36" t="n">
-        <v>6633821.707174866</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4756,7 +4761,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940513</v>
+        <v>111940525</v>
       </c>
       <c r="B37" t="n">
         <v>96348</v>
@@ -4801,10 +4806,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575311.6275743864</v>
+        <v>575228.3839428589</v>
       </c>
       <c r="R37" t="n">
-        <v>6633903.480557631</v>
+        <v>6633810.781705923</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4873,10 +4878,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940481</v>
+        <v>111940545</v>
       </c>
       <c r="B38" t="n">
-        <v>5135</v>
+        <v>89807</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4889,39 +4894,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>105930</v>
+        <v>5321</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575297.4408873306</v>
+        <v>575064.8979840317</v>
       </c>
       <c r="R38" t="n">
-        <v>6633982.134978426</v>
+        <v>6633949.772658374</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4966,12 +4966,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4990,10 +4996,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940480</v>
+        <v>111940521</v>
       </c>
       <c r="B39" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5002,31 +5008,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -5035,10 +5041,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575071.9837971994</v>
+        <v>575287.8594700412</v>
       </c>
       <c r="R39" t="n">
-        <v>6633798.565983936</v>
+        <v>6633709.407490551</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5107,7 +5113,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940536</v>
+        <v>111940515</v>
       </c>
       <c r="B40" t="n">
         <v>96348</v>
@@ -5152,10 +5158,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575145.599272102</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R40" t="n">
-        <v>6633819.665229536</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5224,7 +5230,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940508</v>
+        <v>111940520</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5269,10 +5275,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575087.1298778135</v>
+        <v>575342.6487655415</v>
       </c>
       <c r="R41" t="n">
-        <v>6633846.64108369</v>
+        <v>6633715.044159714</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5341,10 +5347,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940489</v>
+        <v>111940513</v>
       </c>
       <c r="B42" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -5353,31 +5359,31 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
@@ -5386,13 +5392,13 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575219.8730028294</v>
+        <v>575311.6275743864</v>
       </c>
       <c r="R42" t="n">
-        <v>6633957.433703677</v>
+        <v>6633903.480557631</v>
       </c>
       <c r="S42" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T42" t="inlineStr">
         <is>
@@ -5458,7 +5464,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940512</v>
+        <v>111940522</v>
       </c>
       <c r="B43" t="n">
         <v>96348</v>
@@ -5503,10 +5509,10 @@
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575360.7812332346</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R43" t="n">
-        <v>6633963.30730504</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5575,10 +5581,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940523</v>
+        <v>111940487</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>89425</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5587,43 +5593,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575244.3641672247</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R44" t="n">
-        <v>6633767.861525966</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5692,10 +5693,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940545</v>
+        <v>111940494</v>
       </c>
       <c r="B45" t="n">
-        <v>89807</v>
+        <v>56414</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5704,41 +5705,46 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>5321</v>
+        <v>100049</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575064.8979840317</v>
+        <v>575226.3903755767</v>
       </c>
       <c r="R45" t="n">
-        <v>6633949.772658374</v>
+        <v>6633809.735658599</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5780,18 +5786,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD45" t="b">
         <v>0</v>
       </c>
       <c r="AE45" t="b">
         <v>0</v>
       </c>
-      <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="b">
         <v>0</v>
       </c>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940506</v>
+        <v>111940516</v>
       </c>
       <c r="B46" t="n">
         <v>96348</v>
@@ -5855,10 +5855,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575087.3636053291</v>
+        <v>575280.599196161</v>
       </c>
       <c r="R46" t="n">
-        <v>6633835.080760521</v>
+        <v>6633794.240529041</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5927,10 +5927,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940492</v>
+        <v>111940506</v>
       </c>
       <c r="B47" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5939,31 +5939,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5972,13 +5972,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575320.8446553242</v>
+        <v>575087.3636053291</v>
       </c>
       <c r="R47" t="n">
-        <v>6633970.5421063</v>
+        <v>6633835.080760521</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -6044,10 +6044,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940540</v>
+        <v>111940496</v>
       </c>
       <c r="B48" t="n">
-        <v>5113</v>
+        <v>8367</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6060,27 +6060,27 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>100526</v>
+        <v>106554</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6089,10 +6089,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575066.3157799508</v>
+        <v>575061.3826721595</v>
       </c>
       <c r="R48" t="n">
-        <v>6633904.547837113</v>
+        <v>6633899.419929879</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6161,10 +6161,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940479</v>
+        <v>111940482</v>
       </c>
       <c r="B49" t="n">
-        <v>94134</v>
+        <v>88819</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6173,25 +6173,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>53</v>
+        <v>5685</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6201,10 +6201,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575161.9698024652</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R49" t="n">
-        <v>6633931.623422439</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6247,6 +6247,11 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6273,10 +6278,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940487</v>
+        <v>111940480</v>
       </c>
       <c r="B50" t="n">
-        <v>89425</v>
+        <v>5135</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6285,38 +6290,43 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>5442</v>
+        <v>105930</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575331.3240653488</v>
+        <v>575071.9837971994</v>
       </c>
       <c r="R50" t="n">
-        <v>6633900.863105135</v>
+        <v>6633798.565983936</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -6385,10 +6395,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940541</v>
+        <v>111940495</v>
       </c>
       <c r="B51" t="n">
-        <v>5113</v>
+        <v>56414</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6397,31 +6407,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100526</v>
+        <v>100049</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6430,13 +6440,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575226.321789555</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R51" t="n">
-        <v>6633937.451738381</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6502,7 +6512,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940525</v>
+        <v>111940508</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6547,10 +6557,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575228.3839428589</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R52" t="n">
-        <v>6633810.781705923</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6619,7 +6629,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940520</v>
+        <v>111940533</v>
       </c>
       <c r="B53" t="n">
         <v>96348</v>
@@ -6664,10 +6674,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575342.6487655415</v>
+        <v>575184.9867731713</v>
       </c>
       <c r="R53" t="n">
-        <v>6633715.044159714</v>
+        <v>6633939.12875581</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6853,10 +6863,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940497</v>
+        <v>111940544</v>
       </c>
       <c r="B55" t="n">
-        <v>8367</v>
+        <v>5113</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6869,27 +6879,27 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>106554</v>
+        <v>100526</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6898,10 +6908,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575056.384174044</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R55" t="n">
-        <v>6633922.448560039</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6970,10 +6980,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940484</v>
+        <v>111940543</v>
       </c>
       <c r="B56" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6982,38 +6992,43 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P56" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575071.96347728</v>
+        <v>575298.5089502139</v>
       </c>
       <c r="R56" t="n">
-        <v>6633799.571240677</v>
+        <v>6633979.139770023</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7082,10 +7097,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940522</v>
+        <v>111940484</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7094,43 +7109,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575286.8117221124</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R57" t="n">
-        <v>6633711.39763993</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7199,10 +7209,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940482</v>
+        <v>111940483</v>
       </c>
       <c r="B58" t="n">
-        <v>88819</v>
+        <v>89405</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7211,25 +7221,25 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>5685</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
@@ -7239,10 +7249,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575188.9702964281</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R58" t="n">
-        <v>6633767.242506729</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7285,11 +7295,6 @@
       <c r="AB58" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7316,10 +7321,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940516</v>
+        <v>111940490</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7328,31 +7333,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7361,13 +7366,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575280.599196161</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R59" t="n">
-        <v>6633794.240529041</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S59" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7433,10 +7438,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940533</v>
+        <v>111940479</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7445,43 +7450,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575184.9867731713</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R60" t="n">
-        <v>6633939.12875581</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -2665,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940523</v>
+        <v>111940478</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,43 +2677,38 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575244.3641672247</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R19" t="n">
-        <v>6633767.861525966</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2782,10 +2777,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940541</v>
+        <v>111940523</v>
       </c>
       <c r="B20" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2794,31 +2789,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2827,10 +2822,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575226.321789555</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R20" t="n">
-        <v>6633937.451738381</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2899,10 +2894,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940510</v>
+        <v>111940541</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2911,31 +2906,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2944,10 +2939,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575349.3621255655</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R21" t="n">
-        <v>6634004.80887842</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3016,7 +3011,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940504</v>
+        <v>111940510</v>
       </c>
       <c r="B22" t="n">
         <v>96348</v>
@@ -3061,10 +3056,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575123.1609921471</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R22" t="n">
-        <v>6633783.510092617</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3133,10 +3128,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940478</v>
+        <v>111940504</v>
       </c>
       <c r="B23" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3145,38 +3140,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575283.7160419452</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R23" t="n">
-        <v>6633814.417083396</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3947,10 +3947,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940497</v>
+        <v>111940511</v>
       </c>
       <c r="B30" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3959,31 +3959,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3992,10 +3992,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575056.384174044</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R30" t="n">
-        <v>6633922.448560039</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4064,7 +4064,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940514</v>
+        <v>111940512</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4109,10 +4109,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575319.6830904693</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R31" t="n">
-        <v>6633903.643923754</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4181,10 +4181,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940511</v>
+        <v>111940491</v>
       </c>
       <c r="B32" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4193,31 +4193,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -4226,13 +4226,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575364.7477283181</v>
+        <v>575322.561193137</v>
       </c>
       <c r="R32" t="n">
-        <v>6633966.404677297</v>
+        <v>6633910.741786715</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4298,10 +4298,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940512</v>
+        <v>111940485</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4310,43 +4310,38 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575360.7812332346</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R33" t="n">
-        <v>6633963.30730504</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4415,10 +4410,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940491</v>
+        <v>111940497</v>
       </c>
       <c r="B34" t="n">
-        <v>56414</v>
+        <v>8367</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4427,31 +4422,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4460,13 +4455,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575322.561193137</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R34" t="n">
-        <v>6633910.741786715</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S34" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4532,10 +4527,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940485</v>
+        <v>111940514</v>
       </c>
       <c r="B35" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4544,38 +4539,43 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575282.2242737275</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R35" t="n">
-        <v>6633863.161328426</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891795</v>
+        <v>111891799</v>
       </c>
       <c r="B2" t="n">
-        <v>89425</v>
+        <v>4711</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5442</v>
+        <v>100299</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575340.2933948777</v>
+        <v>575311.1894760416</v>
       </c>
       <c r="R2" t="n">
-        <v>6633831.152179351</v>
+        <v>6633676.692420599</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891797</v>
+        <v>111891798</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>90018</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,39 +925,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575308.3438281321</v>
+        <v>575405.8647675795</v>
       </c>
       <c r="R4" t="n">
-        <v>6633742.507718229</v>
+        <v>6633801.810108438</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -1021,10 +1021,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891798</v>
+        <v>111891797</v>
       </c>
       <c r="B5" t="n">
-        <v>90018</v>
+        <v>5113</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,34 +1037,39 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1339</v>
+        <v>100526</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575405.8647675795</v>
+        <v>575308.3438281321</v>
       </c>
       <c r="R5" t="n">
-        <v>6633801.810108438</v>
+        <v>6633742.507718229</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1133,10 +1138,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891799</v>
+        <v>111891795</v>
       </c>
       <c r="B6" t="n">
-        <v>4711</v>
+        <v>89425</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1145,43 +1150,38 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>100299</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575311.1894760416</v>
+        <v>575340.2933948777</v>
       </c>
       <c r="R6" t="n">
-        <v>6633676.692420599</v>
+        <v>6633831.152179351</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111914716</v>
+        <v>111914709</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1266,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,7 +1288,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1370,10 +1370,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111914709</v>
+        <v>111914716</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,21 +1386,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1490,10 +1490,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940539</v>
+        <v>111940487</v>
       </c>
       <c r="B9" t="n">
-        <v>5113</v>
+        <v>89425</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,43 +1502,38 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575071.96347728</v>
+        <v>575331.3240653488</v>
       </c>
       <c r="R9" t="n">
-        <v>6633799.571240677</v>
+        <v>6633900.863105135</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1607,7 +1602,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940502</v>
+        <v>111940536</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1652,10 +1647,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575188.9702964281</v>
+        <v>575145.599272102</v>
       </c>
       <c r="R10" t="n">
-        <v>6633767.242506729</v>
+        <v>6633819.665229536</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1724,10 +1719,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940528</v>
+        <v>111940545</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>89807</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1736,43 +1731,38 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>5321</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575243.4452991589</v>
+        <v>575064.8979840317</v>
       </c>
       <c r="R11" t="n">
-        <v>6633912.657744031</v>
+        <v>6633949.772658374</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1817,12 +1807,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1841,10 +1837,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940538</v>
+        <v>111940488</v>
       </c>
       <c r="B12" t="n">
-        <v>5295</v>
+        <v>56543</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1857,27 +1853,27 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>101728</v>
+        <v>103021</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -1886,13 +1882,13 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575066.0471405423</v>
+        <v>575339.293738773</v>
       </c>
       <c r="R12" t="n">
-        <v>6633942.75649225</v>
+        <v>6633681.788066016</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1932,11 +1928,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2080,7 +2071,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940536</v>
+        <v>111940535</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2125,10 +2116,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575145.599272102</v>
+        <v>575120.5423730967</v>
       </c>
       <c r="R14" t="n">
-        <v>6633819.665229536</v>
+        <v>6633838.265864038</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2197,7 +2188,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940535</v>
+        <v>111940502</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2242,10 +2233,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575120.5423730967</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R15" t="n">
-        <v>6633838.265864038</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2314,10 +2305,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940505</v>
+        <v>111940538</v>
       </c>
       <c r="B16" t="n">
-        <v>96348</v>
+        <v>5295</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2326,31 +2317,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2359,10 +2350,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575072.5234012236</v>
+        <v>575066.0471405423</v>
       </c>
       <c r="R16" t="n">
-        <v>6633821.707174866</v>
+        <v>6633942.75649225</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2405,6 +2396,11 @@
       <c r="AB16" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2431,10 +2427,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940493</v>
+        <v>111940515</v>
       </c>
       <c r="B17" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2443,31 +2439,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2476,13 +2472,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575245.8958250808</v>
+        <v>575286.0686730816</v>
       </c>
       <c r="R17" t="n">
-        <v>6633940.865181752</v>
+        <v>6633872.290124508</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2548,10 +2544,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940524</v>
+        <v>111940497</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2560,31 +2556,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2593,10 +2589,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575235.5650616023</v>
+        <v>575056.384174044</v>
       </c>
       <c r="R18" t="n">
-        <v>6633804.390335427</v>
+        <v>6633922.448560039</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2665,10 +2661,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940478</v>
+        <v>111940522</v>
       </c>
       <c r="B19" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2677,38 +2673,43 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575283.7160419452</v>
+        <v>575286.8117221124</v>
       </c>
       <c r="R19" t="n">
-        <v>6633814.417083396</v>
+        <v>6633711.39763993</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2777,7 +2778,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940523</v>
+        <v>111940529</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2822,10 +2823,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575244.3641672247</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R20" t="n">
-        <v>6633767.861525966</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2894,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940541</v>
+        <v>111940479</v>
       </c>
       <c r="B21" t="n">
-        <v>5113</v>
+        <v>94134</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2906,43 +2907,38 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100526</v>
+        <v>53</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575226.321789555</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R21" t="n">
-        <v>6633937.451738381</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -3011,10 +3007,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940510</v>
+        <v>111940485</v>
       </c>
       <c r="B22" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3023,43 +3019,38 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575349.3621255655</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R22" t="n">
-        <v>6634004.80887842</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3128,10 +3119,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940504</v>
+        <v>111940492</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3140,31 +3131,31 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -3173,13 +3164,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575123.1609921471</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R23" t="n">
-        <v>6633783.510092617</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3245,10 +3236,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940489</v>
+        <v>111940508</v>
       </c>
       <c r="B24" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3257,31 +3248,31 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
@@ -3290,13 +3281,13 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575219.8730028294</v>
+        <v>575087.1298778135</v>
       </c>
       <c r="R24" t="n">
-        <v>6633957.433703677</v>
+        <v>6633846.64108369</v>
       </c>
       <c r="S24" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T24" t="inlineStr">
         <is>
@@ -3362,10 +3353,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940481</v>
+        <v>111940504</v>
       </c>
       <c r="B25" t="n">
-        <v>5135</v>
+        <v>96348</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3374,31 +3365,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3407,10 +3398,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575297.4408873306</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R25" t="n">
-        <v>6633982.134978426</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3479,7 +3470,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940517</v>
+        <v>111940520</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3524,10 +3515,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575314.8626831421</v>
+        <v>575342.6487655415</v>
       </c>
       <c r="R26" t="n">
-        <v>6633768.787645163</v>
+        <v>6633715.044159714</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3596,7 +3587,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940526</v>
+        <v>111940510</v>
       </c>
       <c r="B27" t="n">
         <v>96348</v>
@@ -3641,10 +3632,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575221.7572314964</v>
+        <v>575349.3621255655</v>
       </c>
       <c r="R27" t="n">
-        <v>6633814.670145035</v>
+        <v>6634004.80887842</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3713,10 +3704,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940540</v>
+        <v>111940480</v>
       </c>
       <c r="B28" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3729,21 +3720,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3758,10 +3749,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575066.3157799508</v>
+        <v>575071.9837971994</v>
       </c>
       <c r="R28" t="n">
-        <v>6633904.547837113</v>
+        <v>6633798.565983936</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3830,7 +3821,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940492</v>
+        <v>111940495</v>
       </c>
       <c r="B29" t="n">
         <v>56414</v>
@@ -3866,7 +3857,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3875,10 +3866,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575320.8446553242</v>
+        <v>575219.8730028294</v>
       </c>
       <c r="R29" t="n">
-        <v>6633970.5421063</v>
+        <v>6633957.433703677</v>
       </c>
       <c r="S29" t="n">
         <v>50</v>
@@ -3947,7 +3938,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940511</v>
+        <v>111940518</v>
       </c>
       <c r="B30" t="n">
         <v>96348</v>
@@ -3992,10 +3983,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575364.7477283181</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R30" t="n">
-        <v>6633966.404677297</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -4064,7 +4055,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940512</v>
+        <v>111940516</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4109,10 +4100,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575360.7812332346</v>
+        <v>575280.599196161</v>
       </c>
       <c r="R31" t="n">
-        <v>6633963.30730504</v>
+        <v>6633794.240529041</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4181,10 +4172,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940491</v>
+        <v>111940482</v>
       </c>
       <c r="B32" t="n">
-        <v>56414</v>
+        <v>88819</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4193,46 +4184,41 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>100049</v>
+        <v>5685</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575322.561193137</v>
+        <v>575188.9702964281</v>
       </c>
       <c r="R32" t="n">
-        <v>6633910.741786715</v>
+        <v>6633767.242506729</v>
       </c>
       <c r="S32" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4272,6 +4258,11 @@
       <c r="AB32" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4298,10 +4289,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940485</v>
+        <v>111940528</v>
       </c>
       <c r="B33" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4310,38 +4301,43 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P33" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575282.2242737275</v>
+        <v>575243.4452991589</v>
       </c>
       <c r="R33" t="n">
-        <v>6633863.161328426</v>
+        <v>6633912.657744031</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4410,10 +4406,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940497</v>
+        <v>111940491</v>
       </c>
       <c r="B34" t="n">
-        <v>8367</v>
+        <v>56414</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4422,31 +4418,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>106554</v>
+        <v>100049</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4455,13 +4451,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575056.384174044</v>
+        <v>575322.561193137</v>
       </c>
       <c r="R34" t="n">
-        <v>6633922.448560039</v>
+        <v>6633910.741786715</v>
       </c>
       <c r="S34" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4527,10 +4523,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940514</v>
+        <v>111940541</v>
       </c>
       <c r="B35" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4539,31 +4535,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4572,10 +4568,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575319.6830904693</v>
+        <v>575226.321789555</v>
       </c>
       <c r="R35" t="n">
-        <v>6633903.643923754</v>
+        <v>6633937.451738381</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4644,10 +4640,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940532</v>
+        <v>111940489</v>
       </c>
       <c r="B36" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4656,31 +4652,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4695,7 +4691,7 @@
         <v>6633957.433703677</v>
       </c>
       <c r="S36" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4761,10 +4757,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940525</v>
+        <v>111940494</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4773,31 +4769,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4806,13 +4802,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575228.3839428589</v>
+        <v>575226.3903755767</v>
       </c>
       <c r="R37" t="n">
-        <v>6633810.781705923</v>
+        <v>6633809.735658599</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4878,10 +4874,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940545</v>
+        <v>111940525</v>
       </c>
       <c r="B38" t="n">
-        <v>89807</v>
+        <v>96348</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4890,38 +4886,43 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>5321</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575064.8979840317</v>
+        <v>575228.3839428589</v>
       </c>
       <c r="R38" t="n">
-        <v>6633949.772658374</v>
+        <v>6633810.781705923</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4966,18 +4967,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4996,7 +4991,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940521</v>
+        <v>111940512</v>
       </c>
       <c r="B39" t="n">
         <v>96348</v>
@@ -5041,10 +5036,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575287.8594700412</v>
+        <v>575360.7812332346</v>
       </c>
       <c r="R39" t="n">
-        <v>6633709.407490551</v>
+        <v>6633963.30730504</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5113,10 +5108,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940515</v>
+        <v>111940483</v>
       </c>
       <c r="B40" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5125,43 +5120,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575286.0686730816</v>
+        <v>575123.1609921471</v>
       </c>
       <c r="R40" t="n">
-        <v>6633872.290124508</v>
+        <v>6633783.510092617</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5230,7 +5220,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940520</v>
+        <v>111940513</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5275,10 +5265,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575342.6487655415</v>
+        <v>575311.6275743864</v>
       </c>
       <c r="R41" t="n">
-        <v>6633715.044159714</v>
+        <v>6633903.480557631</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5347,7 +5337,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940513</v>
+        <v>111940511</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5392,10 +5382,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575311.6275743864</v>
+        <v>575364.7477283181</v>
       </c>
       <c r="R42" t="n">
-        <v>6633903.480557631</v>
+        <v>6633966.404677297</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5464,10 +5454,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940522</v>
+        <v>111940478</v>
       </c>
       <c r="B43" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5476,43 +5466,38 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575286.8117221124</v>
+        <v>575283.7160419452</v>
       </c>
       <c r="R43" t="n">
-        <v>6633711.39763993</v>
+        <v>6633814.417083396</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
@@ -5581,10 +5566,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940487</v>
+        <v>111940526</v>
       </c>
       <c r="B44" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5593,38 +5578,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575331.3240653488</v>
+        <v>575221.7572314964</v>
       </c>
       <c r="R44" t="n">
-        <v>6633900.863105135</v>
+        <v>6633814.670145035</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5693,10 +5683,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940494</v>
+        <v>111940521</v>
       </c>
       <c r="B45" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5705,31 +5695,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5738,13 +5728,13 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575226.3903755767</v>
+        <v>575287.8594700412</v>
       </c>
       <c r="R45" t="n">
-        <v>6633809.735658599</v>
+        <v>6633709.407490551</v>
       </c>
       <c r="S45" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T45" t="inlineStr">
         <is>
@@ -5810,10 +5800,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940516</v>
+        <v>111940539</v>
       </c>
       <c r="B46" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5822,31 +5812,31 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
@@ -5855,10 +5845,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575280.599196161</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R46" t="n">
-        <v>6633794.240529041</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5927,7 +5917,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940506</v>
+        <v>111940533</v>
       </c>
       <c r="B47" t="n">
         <v>96348</v>
@@ -5972,10 +5962,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575087.3636053291</v>
+        <v>575184.9867731713</v>
       </c>
       <c r="R47" t="n">
-        <v>6633835.080760521</v>
+        <v>6633939.12875581</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -6044,10 +6034,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940496</v>
+        <v>111940505</v>
       </c>
       <c r="B48" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -6056,31 +6046,31 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
@@ -6089,10 +6079,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575061.3826721595</v>
+        <v>575072.5234012236</v>
       </c>
       <c r="R48" t="n">
-        <v>6633899.419929879</v>
+        <v>6633821.707174866</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6161,10 +6151,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940482</v>
+        <v>111940484</v>
       </c>
       <c r="B49" t="n">
-        <v>88819</v>
+        <v>89405</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6173,25 +6163,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5685</v>
+        <v>1202</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6201,10 +6191,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575188.9702964281</v>
+        <v>575071.96347728</v>
       </c>
       <c r="R49" t="n">
-        <v>6633767.242506729</v>
+        <v>6633799.571240677</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6247,11 +6237,6 @@
       <c r="AB49" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6278,10 +6263,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940480</v>
+        <v>111940493</v>
       </c>
       <c r="B50" t="n">
-        <v>5135</v>
+        <v>56414</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6290,20 +6275,20 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>105930</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -6314,7 +6299,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6323,13 +6308,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575071.9837971994</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R50" t="n">
-        <v>6633798.565983936</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6395,10 +6380,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940495</v>
+        <v>111940490</v>
       </c>
       <c r="B51" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6411,27 +6396,27 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6440,10 +6425,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575219.8730028294</v>
+        <v>575245.8958250808</v>
       </c>
       <c r="R51" t="n">
-        <v>6633957.433703677</v>
+        <v>6633940.865181752</v>
       </c>
       <c r="S51" t="n">
         <v>50</v>
@@ -6512,7 +6497,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940508</v>
+        <v>111940514</v>
       </c>
       <c r="B52" t="n">
         <v>96348</v>
@@ -6557,10 +6542,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575087.1298778135</v>
+        <v>575319.6830904693</v>
       </c>
       <c r="R52" t="n">
-        <v>6633846.64108369</v>
+        <v>6633903.643923754</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6629,10 +6614,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940533</v>
+        <v>111940481</v>
       </c>
       <c r="B53" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6641,31 +6626,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6674,10 +6659,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575184.9867731713</v>
+        <v>575297.4408873306</v>
       </c>
       <c r="R53" t="n">
-        <v>6633939.12875581</v>
+        <v>6633982.134978426</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6746,10 +6731,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940488</v>
+        <v>111940544</v>
       </c>
       <c r="B54" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6758,31 +6743,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6791,13 +6776,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575339.293738773</v>
+        <v>575314.8626831421</v>
       </c>
       <c r="R54" t="n">
-        <v>6633681.788066016</v>
+        <v>6633768.787645163</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6863,7 +6848,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940544</v>
+        <v>111940540</v>
       </c>
       <c r="B55" t="n">
         <v>5113</v>
@@ -6908,10 +6893,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575314.8626831421</v>
+        <v>575066.3157799508</v>
       </c>
       <c r="R55" t="n">
-        <v>6633768.787645163</v>
+        <v>6633904.547837113</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6980,10 +6965,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940543</v>
+        <v>111940506</v>
       </c>
       <c r="B56" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6992,31 +6977,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7025,10 +7010,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575298.5089502139</v>
+        <v>575087.3636053291</v>
       </c>
       <c r="R56" t="n">
-        <v>6633979.139770023</v>
+        <v>6633835.080760521</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7097,10 +7082,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940484</v>
+        <v>111940524</v>
       </c>
       <c r="B57" t="n">
-        <v>89405</v>
+        <v>96348</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -7109,38 +7094,43 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575071.96347728</v>
+        <v>575235.5650616023</v>
       </c>
       <c r="R57" t="n">
-        <v>6633799.571240677</v>
+        <v>6633804.390335427</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7209,10 +7199,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940483</v>
+        <v>111940543</v>
       </c>
       <c r="B58" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7221,38 +7211,43 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575123.1609921471</v>
+        <v>575298.5089502139</v>
       </c>
       <c r="R58" t="n">
-        <v>6633783.510092617</v>
+        <v>6633979.139770023</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7321,10 +7316,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940490</v>
+        <v>111940523</v>
       </c>
       <c r="B59" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -7333,31 +7328,31 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -7366,13 +7361,13 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575245.8958250808</v>
+        <v>575244.3641672247</v>
       </c>
       <c r="R59" t="n">
-        <v>6633940.865181752</v>
+        <v>6633767.861525966</v>
       </c>
       <c r="S59" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T59" t="inlineStr">
         <is>
@@ -7438,10 +7433,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940479</v>
+        <v>111940496</v>
       </c>
       <c r="B60" t="n">
-        <v>94134</v>
+        <v>8367</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7450,38 +7445,43 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>53</v>
+        <v>106554</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575161.9698024652</v>
+        <v>575061.3826721595</v>
       </c>
       <c r="R60" t="n">
-        <v>6633931.623422439</v>
+        <v>6633899.419929879</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -2895,10 +2895,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940479</v>
+        <v>111940492</v>
       </c>
       <c r="B21" t="n">
-        <v>94134</v>
+        <v>56414</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2911,37 +2911,42 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>53</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575161.9698024652</v>
+        <v>575320.8446553242</v>
       </c>
       <c r="R21" t="n">
-        <v>6633931.623422439</v>
+        <v>6633970.5421063</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3007,10 +3012,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940485</v>
+        <v>111940479</v>
       </c>
       <c r="B22" t="n">
-        <v>89369</v>
+        <v>94134</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3019,25 +3024,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5447</v>
+        <v>53</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3047,10 +3052,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575282.2242737275</v>
+        <v>575161.9698024652</v>
       </c>
       <c r="R22" t="n">
-        <v>6633863.161328426</v>
+        <v>6633931.623422439</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3119,10 +3124,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940492</v>
+        <v>111940485</v>
       </c>
       <c r="B23" t="n">
-        <v>56414</v>
+        <v>89369</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3131,46 +3136,41 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100049</v>
+        <v>5447</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575320.8446553242</v>
+        <v>575282.2242737275</v>
       </c>
       <c r="R23" t="n">
-        <v>6633970.5421063</v>
+        <v>6633863.161328426</v>
       </c>
       <c r="S23" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891799</v>
+        <v>111891796</v>
       </c>
       <c r="B2" t="n">
-        <v>4711</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,43 +692,38 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575311.1894760416</v>
+        <v>575342</v>
       </c>
       <c r="R2" t="n">
-        <v>6633676.692420599</v>
+        <v>6633805</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -758,19 +753,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -797,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891796</v>
+        <v>111891795</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +822,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575341.8305702346</v>
+        <v>575340</v>
       </c>
       <c r="R3" t="n">
-        <v>6633805.036052238</v>
+        <v>6633831</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -870,19 +855,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA3" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -909,10 +884,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891798</v>
+        <v>111891797</v>
       </c>
       <c r="B4" t="n">
-        <v>90018</v>
+        <v>5113</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,34 +900,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1339</v>
+        <v>100526</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575405.8647675795</v>
+        <v>575308</v>
       </c>
       <c r="R4" t="n">
-        <v>6633801.810108438</v>
+        <v>6633743</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,19 +962,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA4" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891797</v>
+        <v>111891799</v>
       </c>
       <c r="B5" t="n">
-        <v>5113</v>
+        <v>4711</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1037,21 +1007,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100526</v>
+        <v>100299</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1066,10 +1036,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575308.3438281321</v>
+        <v>575311</v>
       </c>
       <c r="R5" t="n">
-        <v>6633742.507718229</v>
+        <v>6633677</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1099,19 +1069,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1138,10 +1098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891795</v>
+        <v>111891798</v>
       </c>
       <c r="B6" t="n">
-        <v>89425</v>
+        <v>90018</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1150,25 +1110,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>1339</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1178,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575340.2933948777</v>
+        <v>575406</v>
       </c>
       <c r="R6" t="n">
-        <v>6633831.152179351</v>
+        <v>6633802</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1211,19 +1171,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1250,10 +1200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111914709</v>
+        <v>111914716</v>
       </c>
       <c r="B7" t="n">
-        <v>56543</v>
+        <v>56414</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1266,21 +1216,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1288,7 +1238,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1298,10 +1248,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>575387.1271958912</v>
+        <v>575387</v>
       </c>
       <c r="R7" t="n">
-        <v>6633831.599720322</v>
+        <v>6633832</v>
       </c>
       <c r="S7" t="n">
         <v>50</v>
@@ -1331,19 +1281,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA7" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB7" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1370,10 +1310,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111914716</v>
+        <v>111914709</v>
       </c>
       <c r="B8" t="n">
-        <v>56414</v>
+        <v>56543</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1386,21 +1326,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1408,7 +1348,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1418,10 +1358,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>575387.1271958912</v>
+        <v>575387</v>
       </c>
       <c r="R8" t="n">
-        <v>6633831.599720322</v>
+        <v>6633832</v>
       </c>
       <c r="S8" t="n">
         <v>50</v>
@@ -1451,19 +1391,9 @@
           <t>2023-09-04</t>
         </is>
       </c>
-      <c r="Z8" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA8" t="inlineStr">
         <is>
           <t>2023-09-04</t>
-        </is>
-      </c>
-      <c r="AB8" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1490,10 +1420,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940487</v>
+        <v>111940511</v>
       </c>
       <c r="B9" t="n">
-        <v>89425</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1502,38 +1432,43 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575331.3240653488</v>
+        <v>575365</v>
       </c>
       <c r="R9" t="n">
-        <v>6633900.863105135</v>
+        <v>6633966</v>
       </c>
       <c r="S9" t="n">
         <v>5</v>
@@ -1563,19 +1498,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z9" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA9" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB9" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1602,7 +1527,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940536</v>
+        <v>111940524</v>
       </c>
       <c r="B10" t="n">
         <v>96348</v>
@@ -1647,10 +1572,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575145.599272102</v>
+        <v>575236</v>
       </c>
       <c r="R10" t="n">
-        <v>6633819.665229536</v>
+        <v>6633804</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1680,19 +1605,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z10" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA10" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB10" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1719,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940545</v>
+        <v>111940535</v>
       </c>
       <c r="B11" t="n">
-        <v>89807</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1731,38 +1646,43 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5321</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P11" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575064.8979840317</v>
+        <v>575121</v>
       </c>
       <c r="R11" t="n">
-        <v>6633949.772658374</v>
+        <v>6633838</v>
       </c>
       <c r="S11" t="n">
         <v>5</v>
@@ -1792,33 +1712,17 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA11" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB11" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD11" t="b">
         <v>0</v>
       </c>
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1837,10 +1741,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940488</v>
+        <v>111940484</v>
       </c>
       <c r="B12" t="n">
-        <v>56543</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1853,42 +1757,37 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575339.293738773</v>
+        <v>575072</v>
       </c>
       <c r="R12" t="n">
-        <v>6633681.788066016</v>
+        <v>6633800</v>
       </c>
       <c r="S12" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1915,19 +1814,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1954,7 +1843,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940509</v>
+        <v>111940536</v>
       </c>
       <c r="B13" t="n">
         <v>96348</v>
@@ -1999,10 +1888,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575099.6870508653</v>
+        <v>575146</v>
       </c>
       <c r="R13" t="n">
-        <v>6633898.183036338</v>
+        <v>6633820</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -2032,19 +1921,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,7 +1950,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940535</v>
+        <v>111940523</v>
       </c>
       <c r="B14" t="n">
         <v>96348</v>
@@ -2116,10 +1995,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575120.5423730967</v>
+        <v>575244</v>
       </c>
       <c r="R14" t="n">
-        <v>6633838.265864038</v>
+        <v>6633768</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2149,19 +2028,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2188,7 +2057,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940502</v>
+        <v>111940530</v>
       </c>
       <c r="B15" t="n">
         <v>96348</v>
@@ -2233,10 +2102,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575188.9702964281</v>
+        <v>575220</v>
       </c>
       <c r="R15" t="n">
-        <v>6633767.242506729</v>
+        <v>6633957</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2266,19 +2135,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2305,10 +2164,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940538</v>
+        <v>111940491</v>
       </c>
       <c r="B16" t="n">
-        <v>5295</v>
+        <v>56414</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2321,27 +2180,27 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>101728</v>
+        <v>100049</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="M16" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2350,13 +2209,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575066.0471405423</v>
+        <v>575323</v>
       </c>
       <c r="R16" t="n">
-        <v>6633942.75649225</v>
+        <v>6633911</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2383,24 +2242,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2427,10 +2271,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940515</v>
+        <v>111940497</v>
       </c>
       <c r="B17" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2439,31 +2283,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2472,10 +2316,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575286.0686730816</v>
+        <v>575056</v>
       </c>
       <c r="R17" t="n">
-        <v>6633872.290124508</v>
+        <v>6633922</v>
       </c>
       <c r="S17" t="n">
         <v>5</v>
@@ -2505,19 +2349,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2544,10 +2378,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940497</v>
+        <v>111940516</v>
       </c>
       <c r="B18" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2556,31 +2390,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2589,10 +2423,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575056.384174044</v>
+        <v>575281</v>
       </c>
       <c r="R18" t="n">
-        <v>6633922.448560039</v>
+        <v>6633794</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2622,19 +2456,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2661,7 +2485,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940522</v>
+        <v>111940512</v>
       </c>
       <c r="B19" t="n">
         <v>96348</v>
@@ -2706,10 +2530,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575286.8117221124</v>
+        <v>575361</v>
       </c>
       <c r="R19" t="n">
-        <v>6633711.39763993</v>
+        <v>6633963</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2739,19 +2563,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2778,7 +2592,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940529</v>
+        <v>111940501</v>
       </c>
       <c r="B20" t="n">
         <v>96348</v>
@@ -2823,10 +2637,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575219.8730028294</v>
+        <v>575189</v>
       </c>
       <c r="R20" t="n">
-        <v>6633957.433703677</v>
+        <v>6633767</v>
       </c>
       <c r="S20" t="n">
         <v>5</v>
@@ -2856,19 +2670,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2895,10 +2699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940492</v>
+        <v>111940514</v>
       </c>
       <c r="B21" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2907,31 +2711,31 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
@@ -2940,13 +2744,13 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575320.8446553242</v>
+        <v>575320</v>
       </c>
       <c r="R21" t="n">
-        <v>6633970.5421063</v>
+        <v>6633904</v>
       </c>
       <c r="S21" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2973,19 +2777,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3012,10 +2806,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940479</v>
+        <v>111940545</v>
       </c>
       <c r="B22" t="n">
-        <v>94134</v>
+        <v>89807</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3024,25 +2818,25 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>53</v>
+        <v>5321</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3052,10 +2846,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575161.9698024652</v>
+        <v>575065</v>
       </c>
       <c r="R22" t="n">
-        <v>6633931.623422439</v>
+        <v>6633950</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -3085,19 +2879,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3106,6 +2895,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3124,10 +2914,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940485</v>
+        <v>111940522</v>
       </c>
       <c r="B23" t="n">
-        <v>89369</v>
+        <v>96348</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3136,38 +2926,43 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575282.2242737275</v>
+        <v>575287</v>
       </c>
       <c r="R23" t="n">
-        <v>6633863.161328426</v>
+        <v>6633711</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3197,19 +2992,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3236,10 +3021,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940508</v>
+        <v>111940485</v>
       </c>
       <c r="B24" t="n">
-        <v>96348</v>
+        <v>89369</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3248,43 +3033,38 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575087.1298778135</v>
+        <v>575282</v>
       </c>
       <c r="R24" t="n">
-        <v>6633846.64108369</v>
+        <v>6633863</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3314,19 +3094,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3353,7 +3123,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940504</v>
+        <v>111940510</v>
       </c>
       <c r="B25" t="n">
         <v>96348</v>
@@ -3398,10 +3168,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575123.1609921471</v>
+        <v>575349</v>
       </c>
       <c r="R25" t="n">
-        <v>6633783.510092617</v>
+        <v>6634005</v>
       </c>
       <c r="S25" t="n">
         <v>5</v>
@@ -3431,19 +3201,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3470,7 +3230,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940520</v>
+        <v>111940528</v>
       </c>
       <c r="B26" t="n">
         <v>96348</v>
@@ -3515,10 +3275,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575342.6487655415</v>
+        <v>575243</v>
       </c>
       <c r="R26" t="n">
-        <v>6633715.044159714</v>
+        <v>6633913</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3548,19 +3308,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3587,10 +3337,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940510</v>
+        <v>111940539</v>
       </c>
       <c r="B27" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3599,31 +3349,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3632,10 +3382,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575349.3621255655</v>
+        <v>575072</v>
       </c>
       <c r="R27" t="n">
-        <v>6634004.80887842</v>
+        <v>6633800</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3665,19 +3415,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3704,10 +3444,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940480</v>
+        <v>111940538</v>
       </c>
       <c r="B28" t="n">
-        <v>5135</v>
+        <v>5295</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3716,31 +3456,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105930</v>
+        <v>101728</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3749,10 +3489,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575071.9837971994</v>
+        <v>575066</v>
       </c>
       <c r="R28" t="n">
-        <v>6633798.565983936</v>
+        <v>6633943</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3782,19 +3522,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3821,10 +3556,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940495</v>
+        <v>111940506</v>
       </c>
       <c r="B29" t="n">
-        <v>56414</v>
+        <v>96348</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3833,31 +3568,31 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
@@ -3866,13 +3601,13 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575219.8730028294</v>
+        <v>575087</v>
       </c>
       <c r="R29" t="n">
-        <v>6633957.433703677</v>
+        <v>6633835</v>
       </c>
       <c r="S29" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3899,19 +3634,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3938,10 +3663,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940518</v>
+        <v>111940494</v>
       </c>
       <c r="B30" t="n">
-        <v>96348</v>
+        <v>56414</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3950,31 +3675,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3983,13 +3708,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575314.8626831421</v>
+        <v>575226</v>
       </c>
       <c r="R30" t="n">
-        <v>6633768.787645163</v>
+        <v>6633810</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -4016,19 +3741,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4055,7 +3770,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940516</v>
+        <v>111940520</v>
       </c>
       <c r="B31" t="n">
         <v>96348</v>
@@ -4100,10 +3815,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575280.599196161</v>
+        <v>575343</v>
       </c>
       <c r="R31" t="n">
-        <v>6633794.240529041</v>
+        <v>6633715</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -4133,19 +3848,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z31" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB31" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4172,10 +3877,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940482</v>
+        <v>111940490</v>
       </c>
       <c r="B32" t="n">
-        <v>88819</v>
+        <v>56543</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4184,41 +3889,46 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5685</v>
+        <v>103021</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P32" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575188.9702964281</v>
+        <v>575246</v>
       </c>
       <c r="R32" t="n">
-        <v>6633767.242506729</v>
+        <v>6633941</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4245,24 +3955,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA32" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB32" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4289,10 +3984,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940528</v>
+        <v>111940488</v>
       </c>
       <c r="B33" t="n">
-        <v>96348</v>
+        <v>56543</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4301,31 +3996,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4334,13 +4029,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575243.4452991589</v>
+        <v>575339</v>
       </c>
       <c r="R33" t="n">
-        <v>6633912.657744031</v>
+        <v>6633682</v>
       </c>
       <c r="S33" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4367,19 +4062,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z33" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA33" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB33" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4406,10 +4091,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940491</v>
+        <v>111940541</v>
       </c>
       <c r="B34" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4418,31 +4103,31 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="M34" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
@@ -4451,13 +4136,13 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575322.561193137</v>
+        <v>575226</v>
       </c>
       <c r="R34" t="n">
-        <v>6633910.741786715</v>
+        <v>6633937</v>
       </c>
       <c r="S34" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T34" t="inlineStr">
         <is>
@@ -4484,19 +4169,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z34" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB34" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4523,10 +4198,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940541</v>
+        <v>111940478</v>
       </c>
       <c r="B35" t="n">
-        <v>5113</v>
+        <v>94134</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4535,43 +4210,38 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100526</v>
+        <v>53</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575226.321789555</v>
+        <v>575284</v>
       </c>
       <c r="R35" t="n">
-        <v>6633937.451738381</v>
+        <v>6633814</v>
       </c>
       <c r="S35" t="n">
         <v>5</v>
@@ -4601,19 +4271,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z35" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA35" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB35" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD35" t="b">
@@ -4685,10 +4345,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575219.8730028294</v>
+        <v>575220</v>
       </c>
       <c r="R36" t="n">
-        <v>6633957.433703677</v>
+        <v>6633957</v>
       </c>
       <c r="S36" t="n">
         <v>50</v>
@@ -4718,19 +4378,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z36" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA36" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB36" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD36" t="b">
@@ -4757,7 +4407,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940494</v>
+        <v>111940495</v>
       </c>
       <c r="B37" t="n">
         <v>56414</v>
@@ -4802,10 +4452,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575226.3903755767</v>
+        <v>575220</v>
       </c>
       <c r="R37" t="n">
-        <v>6633809.735658599</v>
+        <v>6633957</v>
       </c>
       <c r="S37" t="n">
         <v>50</v>
@@ -4835,19 +4485,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA37" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD37" t="b">
@@ -4874,10 +4514,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940525</v>
+        <v>111940544</v>
       </c>
       <c r="B38" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4886,31 +4526,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4919,10 +4559,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575228.3839428589</v>
+        <v>575315</v>
       </c>
       <c r="R38" t="n">
-        <v>6633810.781705923</v>
+        <v>6633769</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4952,19 +4592,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z38" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA38" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB38" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD38" t="b">
@@ -4991,7 +4621,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940512</v>
+        <v>111940518</v>
       </c>
       <c r="B39" t="n">
         <v>96348</v>
@@ -5036,10 +4666,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575360.7812332346</v>
+        <v>575315</v>
       </c>
       <c r="R39" t="n">
-        <v>6633963.30730504</v>
+        <v>6633769</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -5069,19 +4699,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z39" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA39" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB39" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD39" t="b">
@@ -5108,10 +4728,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940483</v>
+        <v>111940487</v>
       </c>
       <c r="B40" t="n">
-        <v>89405</v>
+        <v>89425</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5124,21 +4744,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5148,10 +4768,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575123.1609921471</v>
+        <v>575331</v>
       </c>
       <c r="R40" t="n">
-        <v>6633783.510092617</v>
+        <v>6633901</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -5181,19 +4801,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z40" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA40" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB40" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD40" t="b">
@@ -5220,7 +4830,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940513</v>
+        <v>111940515</v>
       </c>
       <c r="B41" t="n">
         <v>96348</v>
@@ -5265,10 +4875,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575311.6275743864</v>
+        <v>575286</v>
       </c>
       <c r="R41" t="n">
-        <v>6633903.480557631</v>
+        <v>6633872</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -5298,19 +4908,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA41" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD41" t="b">
@@ -5337,7 +4937,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940511</v>
+        <v>111940521</v>
       </c>
       <c r="B42" t="n">
         <v>96348</v>
@@ -5382,10 +4982,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575364.7477283181</v>
+        <v>575288</v>
       </c>
       <c r="R42" t="n">
-        <v>6633966.404677297</v>
+        <v>6633709</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5415,19 +5015,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA42" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD42" t="b">
@@ -5454,10 +5044,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940478</v>
+        <v>111940492</v>
       </c>
       <c r="B43" t="n">
-        <v>94134</v>
+        <v>56414</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5470,37 +5060,42 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>100049</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575283.7160419452</v>
+        <v>575321</v>
       </c>
       <c r="R43" t="n">
-        <v>6633814.417083396</v>
+        <v>6633971</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5527,19 +5122,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA43" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD43" t="b">
@@ -5566,10 +5151,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940526</v>
+        <v>111940483</v>
       </c>
       <c r="B44" t="n">
-        <v>96348</v>
+        <v>89405</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5578,43 +5163,38 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575221.7572314964</v>
+        <v>575123</v>
       </c>
       <c r="R44" t="n">
-        <v>6633814.670145035</v>
+        <v>6633784</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5644,19 +5224,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA44" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5683,7 +5253,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940521</v>
+        <v>111940513</v>
       </c>
       <c r="B45" t="n">
         <v>96348</v>
@@ -5728,10 +5298,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575287.8594700412</v>
+        <v>575312</v>
       </c>
       <c r="R45" t="n">
-        <v>6633709.407490551</v>
+        <v>6633903</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5761,19 +5331,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA45" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5800,10 +5360,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940539</v>
+        <v>111940479</v>
       </c>
       <c r="B46" t="n">
-        <v>5113</v>
+        <v>94134</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5812,43 +5372,38 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>100526</v>
+        <v>53</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575071.96347728</v>
+        <v>575162</v>
       </c>
       <c r="R46" t="n">
-        <v>6633799.571240677</v>
+        <v>6633932</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5878,19 +5433,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA46" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD46" t="b">
@@ -5917,10 +5462,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940533</v>
+        <v>111940481</v>
       </c>
       <c r="B47" t="n">
-        <v>96348</v>
+        <v>5135</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5929,31 +5474,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5962,10 +5507,10 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575184.9867731713</v>
+        <v>575297</v>
       </c>
       <c r="R47" t="n">
-        <v>6633939.12875581</v>
+        <v>6633982</v>
       </c>
       <c r="S47" t="n">
         <v>5</v>
@@ -5995,19 +5540,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA47" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -6034,7 +5569,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940505</v>
+        <v>111940508</v>
       </c>
       <c r="B48" t="n">
         <v>96348</v>
@@ -6079,10 +5614,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575072.5234012236</v>
+        <v>575087</v>
       </c>
       <c r="R48" t="n">
-        <v>6633821.707174866</v>
+        <v>6633847</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -6112,19 +5647,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA48" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD48" t="b">
@@ -6151,10 +5676,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940484</v>
+        <v>111940482</v>
       </c>
       <c r="B49" t="n">
-        <v>89405</v>
+        <v>88819</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -6163,25 +5688,25 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>1202</v>
+        <v>5685</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
@@ -6191,10 +5716,10 @@
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575071.96347728</v>
+        <v>575189</v>
       </c>
       <c r="R49" t="n">
-        <v>6633799.571240677</v>
+        <v>6633767</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -6224,19 +5749,14 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -6263,10 +5783,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940493</v>
+        <v>111940540</v>
       </c>
       <c r="B50" t="n">
-        <v>56414</v>
+        <v>5113</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -6275,31 +5795,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100049</v>
+        <v>100526</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -6308,13 +5828,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575245.8958250808</v>
+        <v>575066</v>
       </c>
       <c r="R50" t="n">
-        <v>6633940.865181752</v>
+        <v>6633905</v>
       </c>
       <c r="S50" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -6341,19 +5861,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA50" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -6380,10 +5890,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940490</v>
+        <v>111940509</v>
       </c>
       <c r="B51" t="n">
-        <v>56543</v>
+        <v>96348</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -6392,31 +5902,31 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
@@ -6425,13 +5935,13 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575245.8958250808</v>
+        <v>575100</v>
       </c>
       <c r="R51" t="n">
-        <v>6633940.865181752</v>
+        <v>6633898</v>
       </c>
       <c r="S51" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T51" t="inlineStr">
         <is>
@@ -6458,19 +5968,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA51" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD51" t="b">
@@ -6497,10 +5997,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940514</v>
+        <v>111940496</v>
       </c>
       <c r="B52" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6509,31 +6009,31 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P52" t="inlineStr">
@@ -6542,10 +6042,10 @@
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575319.6830904693</v>
+        <v>575061</v>
       </c>
       <c r="R52" t="n">
-        <v>6633903.643923754</v>
+        <v>6633899</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6575,19 +6075,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA52" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD52" t="b">
@@ -6614,10 +6104,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940481</v>
+        <v>111940493</v>
       </c>
       <c r="B53" t="n">
-        <v>5135</v>
+        <v>56414</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6626,20 +6116,20 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>105930</v>
+        <v>100049</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -6650,7 +6140,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6659,13 +6149,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575297.4408873306</v>
+        <v>575246</v>
       </c>
       <c r="R53" t="n">
-        <v>6633982.134978426</v>
+        <v>6633941</v>
       </c>
       <c r="S53" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6692,19 +6182,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA53" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD53" t="b">
@@ -6731,10 +6211,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940544</v>
+        <v>111940480</v>
       </c>
       <c r="B54" t="n">
-        <v>5113</v>
+        <v>5135</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6747,21 +6227,21 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100526</v>
+        <v>105930</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
@@ -6776,10 +6256,10 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575314.8626831421</v>
+        <v>575072</v>
       </c>
       <c r="R54" t="n">
-        <v>6633768.787645163</v>
+        <v>6633799</v>
       </c>
       <c r="S54" t="n">
         <v>5</v>
@@ -6809,19 +6289,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA54" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD54" t="b">
@@ -6848,10 +6318,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940540</v>
+        <v>111940504</v>
       </c>
       <c r="B55" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6860,31 +6330,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6893,10 +6363,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575066.3157799508</v>
+        <v>575123</v>
       </c>
       <c r="R55" t="n">
-        <v>6633904.547837113</v>
+        <v>6633784</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6926,19 +6396,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA55" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6965,10 +6425,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940506</v>
+        <v>111940543</v>
       </c>
       <c r="B56" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6977,31 +6437,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -7010,10 +6470,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575087.3636053291</v>
+        <v>575299</v>
       </c>
       <c r="R56" t="n">
-        <v>6633835.080760521</v>
+        <v>6633979</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -7043,19 +6503,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -7082,7 +6532,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940524</v>
+        <v>111940505</v>
       </c>
       <c r="B57" t="n">
         <v>96348</v>
@@ -7127,10 +6577,10 @@
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575235.5650616023</v>
+        <v>575073</v>
       </c>
       <c r="R57" t="n">
-        <v>6633804.390335427</v>
+        <v>6633822</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -7160,19 +6610,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA57" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7199,10 +6639,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940543</v>
+        <v>111940525</v>
       </c>
       <c r="B58" t="n">
-        <v>5113</v>
+        <v>96348</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -7211,31 +6651,31 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -7244,10 +6684,10 @@
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575298.5089502139</v>
+        <v>575228</v>
       </c>
       <c r="R58" t="n">
-        <v>6633979.139770023</v>
+        <v>6633811</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -7277,19 +6717,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA58" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD58" t="b">
@@ -7316,7 +6746,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940523</v>
+        <v>111940533</v>
       </c>
       <c r="B59" t="n">
         <v>96348</v>
@@ -7361,10 +6791,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575244.3641672247</v>
+        <v>575185</v>
       </c>
       <c r="R59" t="n">
-        <v>6633767.861525966</v>
+        <v>6633939</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -7394,19 +6824,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA59" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD59" t="b">
@@ -7433,10 +6853,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940496</v>
+        <v>111940526</v>
       </c>
       <c r="B60" t="n">
-        <v>8367</v>
+        <v>96348</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -7445,31 +6865,31 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>106554</v>
+        <v>220787</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P60" t="inlineStr">
@@ -7478,10 +6898,10 @@
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575061.3826721595</v>
+        <v>575222</v>
       </c>
       <c r="R60" t="n">
-        <v>6633899.419929879</v>
+        <v>6633815</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -7511,19 +6931,9 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA60" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD60" t="b">

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891796</v>
+        <v>111891798</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>90152</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>1339</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575342</v>
+        <v>575406</v>
       </c>
       <c r="R2" t="n">
-        <v>6633805</v>
+        <v>6633802</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891795</v>
+        <v>111891799</v>
       </c>
       <c r="B3" t="n">
-        <v>89425</v>
+        <v>4711</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -794,38 +794,43 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5442</v>
+        <v>100299</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575340</v>
+        <v>575311</v>
       </c>
       <c r="R3" t="n">
-        <v>6633831</v>
+        <v>6633677</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -991,10 +996,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891799</v>
+        <v>111891796</v>
       </c>
       <c r="B5" t="n">
-        <v>4711</v>
+        <v>89539</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1003,43 +1008,38 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100299</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P5" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575311</v>
+        <v>575342</v>
       </c>
       <c r="R5" t="n">
-        <v>6633677</v>
+        <v>6633805</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,10 +1098,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891798</v>
+        <v>111891795</v>
       </c>
       <c r="B6" t="n">
-        <v>90018</v>
+        <v>89559</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1110,25 +1110,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1339</v>
+        <v>5442</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1138,10 +1138,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575406</v>
+        <v>575340</v>
       </c>
       <c r="R6" t="n">
-        <v>6633802</v>
+        <v>6633831</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1203,7 +1203,7 @@
         <v>111914716</v>
       </c>
       <c r="B7" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1313,7 +1313,7 @@
         <v>111914709</v>
       </c>
       <c r="B8" t="n">
-        <v>56543</v>
+        <v>56575</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940511</v>
+        <v>111940490</v>
       </c>
       <c r="B9" t="n">
-        <v>96348</v>
+        <v>56575</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1432,31 +1432,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575365</v>
+        <v>575246</v>
       </c>
       <c r="R9" t="n">
-        <v>6633966</v>
+        <v>6633941</v>
       </c>
       <c r="S9" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940524</v>
+        <v>111940530</v>
       </c>
       <c r="B10" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575236</v>
+        <v>575220</v>
       </c>
       <c r="R10" t="n">
-        <v>6633804</v>
+        <v>6633957</v>
       </c>
       <c r="S10" t="n">
         <v>5</v>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940535</v>
+        <v>111940488</v>
       </c>
       <c r="B11" t="n">
-        <v>96348</v>
+        <v>56575</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1646,31 +1646,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575121</v>
+        <v>575339</v>
       </c>
       <c r="R11" t="n">
-        <v>6633838</v>
+        <v>6633682</v>
       </c>
       <c r="S11" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1741,10 +1741,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940484</v>
+        <v>111940540</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>5113</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1753,38 +1753,43 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>100526</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P12" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575072</v>
+        <v>575066</v>
       </c>
       <c r="R12" t="n">
-        <v>6633800</v>
+        <v>6633905</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1843,10 +1848,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940536</v>
+        <v>111940517</v>
       </c>
       <c r="B13" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1888,10 +1893,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575146</v>
+        <v>575315</v>
       </c>
       <c r="R13" t="n">
-        <v>6633820</v>
+        <v>6633769</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1950,10 +1955,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940523</v>
+        <v>111940497</v>
       </c>
       <c r="B14" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1962,31 +1967,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -1995,10 +2000,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575244</v>
+        <v>575056</v>
       </c>
       <c r="R14" t="n">
-        <v>6633768</v>
+        <v>6633922</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2057,10 +2062,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940530</v>
+        <v>111940516</v>
       </c>
       <c r="B15" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2102,10 +2107,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575220</v>
+        <v>575281</v>
       </c>
       <c r="R15" t="n">
-        <v>6633957</v>
+        <v>6633794</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2164,10 +2169,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940491</v>
+        <v>111940528</v>
       </c>
       <c r="B16" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2176,31 +2181,31 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
@@ -2209,13 +2214,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575323</v>
+        <v>575243</v>
       </c>
       <c r="R16" t="n">
-        <v>6633911</v>
+        <v>6633913</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2271,10 +2276,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940497</v>
+        <v>111940495</v>
       </c>
       <c r="B17" t="n">
-        <v>8367</v>
+        <v>56446</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2283,31 +2288,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>106554</v>
+        <v>100049</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2316,13 +2321,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575056</v>
+        <v>575220</v>
       </c>
       <c r="R17" t="n">
-        <v>6633922</v>
+        <v>6633957</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2378,10 +2383,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940516</v>
+        <v>111940525</v>
       </c>
       <c r="B18" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2423,10 +2428,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575281</v>
+        <v>575228</v>
       </c>
       <c r="R18" t="n">
-        <v>6633794</v>
+        <v>6633811</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2485,10 +2490,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940512</v>
+        <v>111940513</v>
       </c>
       <c r="B19" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2530,10 +2535,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575361</v>
+        <v>575312</v>
       </c>
       <c r="R19" t="n">
-        <v>6633963</v>
+        <v>6633903</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2592,10 +2597,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940501</v>
+        <v>111940493</v>
       </c>
       <c r="B20" t="n">
-        <v>96348</v>
+        <v>56446</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2604,31 +2609,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2637,13 +2642,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575189</v>
+        <v>575246</v>
       </c>
       <c r="R20" t="n">
-        <v>6633767</v>
+        <v>6633941</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2699,10 +2704,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940514</v>
+        <v>111940515</v>
       </c>
       <c r="B21" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2744,10 +2749,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575320</v>
+        <v>575286</v>
       </c>
       <c r="R21" t="n">
-        <v>6633904</v>
+        <v>6633872</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2806,10 +2811,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940545</v>
+        <v>111940544</v>
       </c>
       <c r="B22" t="n">
-        <v>89807</v>
+        <v>5113</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2822,34 +2827,39 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5321</v>
+        <v>100526</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P22" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575065</v>
+        <v>575315</v>
       </c>
       <c r="R22" t="n">
-        <v>6633950</v>
+        <v>6633769</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2884,18 +2894,12 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -2914,10 +2918,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940522</v>
+        <v>111940510</v>
       </c>
       <c r="B23" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2959,10 +2963,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575287</v>
+        <v>575349</v>
       </c>
       <c r="R23" t="n">
-        <v>6633711</v>
+        <v>6634005</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3021,10 +3025,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940485</v>
+        <v>111940524</v>
       </c>
       <c r="B24" t="n">
-        <v>89369</v>
+        <v>96720</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3033,38 +3037,43 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P24" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575282</v>
+        <v>575236</v>
       </c>
       <c r="R24" t="n">
-        <v>6633863</v>
+        <v>6633804</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3123,10 +3132,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111940510</v>
+        <v>111940492</v>
       </c>
       <c r="B25" t="n">
-        <v>96348</v>
+        <v>56446</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3135,31 +3144,31 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
@@ -3168,13 +3177,13 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>575349</v>
+        <v>575321</v>
       </c>
       <c r="R25" t="n">
-        <v>6634005</v>
+        <v>6633971</v>
       </c>
       <c r="S25" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T25" t="inlineStr">
         <is>
@@ -3230,10 +3239,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940528</v>
+        <v>111940512</v>
       </c>
       <c r="B26" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3275,10 +3284,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575243</v>
+        <v>575361</v>
       </c>
       <c r="R26" t="n">
-        <v>6633913</v>
+        <v>6633963</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3337,10 +3346,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940539</v>
+        <v>111940521</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3349,31 +3358,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3382,10 +3391,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575072</v>
+        <v>575288</v>
       </c>
       <c r="R27" t="n">
-        <v>6633800</v>
+        <v>6633709</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3444,10 +3453,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940538</v>
+        <v>111940481</v>
       </c>
       <c r="B28" t="n">
-        <v>5295</v>
+        <v>5135</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3456,31 +3465,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101728</v>
+        <v>105930</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3489,10 +3498,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575066</v>
+        <v>575297</v>
       </c>
       <c r="R28" t="n">
-        <v>6633943</v>
+        <v>6633982</v>
       </c>
       <c r="S28" t="n">
         <v>5</v>
@@ -3525,11 +3534,6 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3556,10 +3560,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940506</v>
+        <v>111940511</v>
       </c>
       <c r="B29" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3601,10 +3605,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575087</v>
+        <v>575365</v>
       </c>
       <c r="R29" t="n">
-        <v>6633835</v>
+        <v>6633966</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3663,10 +3667,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940494</v>
+        <v>111940501</v>
       </c>
       <c r="B30" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3675,31 +3679,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3708,13 +3712,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575226</v>
+        <v>575189</v>
       </c>
       <c r="R30" t="n">
-        <v>6633810</v>
+        <v>6633767</v>
       </c>
       <c r="S30" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3770,10 +3774,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940520</v>
+        <v>111940505</v>
       </c>
       <c r="B31" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3815,10 +3819,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575343</v>
+        <v>575073</v>
       </c>
       <c r="R31" t="n">
-        <v>6633715</v>
+        <v>6633822</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3877,10 +3881,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940490</v>
+        <v>111940506</v>
       </c>
       <c r="B32" t="n">
-        <v>56543</v>
+        <v>96720</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3889,31 +3893,31 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
@@ -3922,13 +3926,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575246</v>
+        <v>575087</v>
       </c>
       <c r="R32" t="n">
-        <v>6633941</v>
+        <v>6633835</v>
       </c>
       <c r="S32" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3984,10 +3988,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940488</v>
+        <v>111940541</v>
       </c>
       <c r="B33" t="n">
-        <v>56543</v>
+        <v>5113</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -3996,31 +4000,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>103021</v>
+        <v>100526</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="M33" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4029,13 +4033,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575339</v>
+        <v>575226</v>
       </c>
       <c r="R33" t="n">
-        <v>6633682</v>
+        <v>6633937</v>
       </c>
       <c r="S33" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4091,10 +4095,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940541</v>
+        <v>111940482</v>
       </c>
       <c r="B34" t="n">
-        <v>5113</v>
+        <v>88953</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4107,39 +4111,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>100526</v>
+        <v>5685</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575226</v>
+        <v>575189</v>
       </c>
       <c r="R34" t="n">
-        <v>6633937</v>
+        <v>6633767</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4172,6 +4171,11 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4198,10 +4202,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940478</v>
+        <v>111940491</v>
       </c>
       <c r="B35" t="n">
-        <v>94134</v>
+        <v>56446</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4214,37 +4218,42 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53</v>
+        <v>100049</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P35" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575284</v>
+        <v>575323</v>
       </c>
       <c r="R35" t="n">
-        <v>6633814</v>
+        <v>6633911</v>
       </c>
       <c r="S35" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4300,10 +4309,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940489</v>
+        <v>111940480</v>
       </c>
       <c r="B36" t="n">
-        <v>56543</v>
+        <v>5135</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4312,31 +4321,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>103021</v>
+        <v>105930</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4345,13 +4354,13 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575220</v>
+        <v>575072</v>
       </c>
       <c r="R36" t="n">
-        <v>6633957</v>
+        <v>6633799</v>
       </c>
       <c r="S36" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T36" t="inlineStr">
         <is>
@@ -4407,10 +4416,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940495</v>
+        <v>111940508</v>
       </c>
       <c r="B37" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4419,31 +4428,31 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
@@ -4452,13 +4461,13 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575220</v>
+        <v>575087</v>
       </c>
       <c r="R37" t="n">
-        <v>6633957</v>
+        <v>6633847</v>
       </c>
       <c r="S37" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T37" t="inlineStr">
         <is>
@@ -4514,10 +4523,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940544</v>
+        <v>111940536</v>
       </c>
       <c r="B38" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4526,31 +4535,31 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -4559,10 +4568,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575315</v>
+        <v>575146</v>
       </c>
       <c r="R38" t="n">
-        <v>6633769</v>
+        <v>6633820</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4621,10 +4630,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940518</v>
+        <v>111940523</v>
       </c>
       <c r="B39" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4666,10 +4675,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575315</v>
+        <v>575244</v>
       </c>
       <c r="R39" t="n">
-        <v>6633769</v>
+        <v>6633768</v>
       </c>
       <c r="S39" t="n">
         <v>5</v>
@@ -4728,10 +4737,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940487</v>
+        <v>111940509</v>
       </c>
       <c r="B40" t="n">
-        <v>89425</v>
+        <v>96720</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4740,38 +4749,43 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575331</v>
+        <v>575100</v>
       </c>
       <c r="R40" t="n">
-        <v>6633901</v>
+        <v>6633898</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4830,10 +4844,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940515</v>
+        <v>111940496</v>
       </c>
       <c r="B41" t="n">
-        <v>96348</v>
+        <v>8367</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4842,31 +4856,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4875,10 +4889,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575286</v>
+        <v>575061</v>
       </c>
       <c r="R41" t="n">
-        <v>6633872</v>
+        <v>6633899</v>
       </c>
       <c r="S41" t="n">
         <v>5</v>
@@ -4937,10 +4951,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940521</v>
+        <v>111940520</v>
       </c>
       <c r="B42" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4982,10 +4996,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575288</v>
+        <v>575343</v>
       </c>
       <c r="R42" t="n">
-        <v>6633709</v>
+        <v>6633715</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5044,10 +5058,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940492</v>
+        <v>111940479</v>
       </c>
       <c r="B43" t="n">
-        <v>56414</v>
+        <v>94287</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5060,42 +5074,37 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>100049</v>
+        <v>53</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575321</v>
+        <v>575162</v>
       </c>
       <c r="R43" t="n">
-        <v>6633971</v>
+        <v>6633932</v>
       </c>
       <c r="S43" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5151,10 +5160,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940483</v>
+        <v>111940478</v>
       </c>
       <c r="B44" t="n">
-        <v>89405</v>
+        <v>94287</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5167,21 +5176,21 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
@@ -5191,10 +5200,10 @@
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575123</v>
+        <v>575284</v>
       </c>
       <c r="R44" t="n">
-        <v>6633784</v>
+        <v>6633814</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5253,10 +5262,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940513</v>
+        <v>111940539</v>
       </c>
       <c r="B45" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5265,31 +5274,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5298,10 +5307,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575312</v>
+        <v>575072</v>
       </c>
       <c r="R45" t="n">
-        <v>6633903</v>
+        <v>6633800</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5360,10 +5369,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940479</v>
+        <v>111940485</v>
       </c>
       <c r="B46" t="n">
-        <v>94134</v>
+        <v>89503</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5372,25 +5381,25 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>53</v>
+        <v>5447</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5400,10 +5409,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575162</v>
+        <v>575282</v>
       </c>
       <c r="R46" t="n">
-        <v>6633932</v>
+        <v>6633863</v>
       </c>
       <c r="S46" t="n">
         <v>5</v>
@@ -5462,10 +5471,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940481</v>
+        <v>111940489</v>
       </c>
       <c r="B47" t="n">
-        <v>5135</v>
+        <v>56575</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5474,31 +5483,31 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>105930</v>
+        <v>103021</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
@@ -5507,13 +5516,13 @@
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575297</v>
+        <v>575220</v>
       </c>
       <c r="R47" t="n">
-        <v>6633982</v>
+        <v>6633957</v>
       </c>
       <c r="S47" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5569,10 +5578,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940508</v>
+        <v>111940514</v>
       </c>
       <c r="B48" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5614,10 +5623,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575087</v>
+        <v>575320</v>
       </c>
       <c r="R48" t="n">
-        <v>6633847</v>
+        <v>6633904</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5676,10 +5685,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940482</v>
+        <v>111940533</v>
       </c>
       <c r="B49" t="n">
-        <v>88819</v>
+        <v>96720</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5688,38 +5697,43 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575189</v>
+        <v>575185</v>
       </c>
       <c r="R49" t="n">
-        <v>6633767</v>
+        <v>6633939</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5752,11 +5766,6 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5783,10 +5792,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940540</v>
+        <v>111940535</v>
       </c>
       <c r="B50" t="n">
-        <v>5113</v>
+        <v>96720</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5795,31 +5804,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5828,10 +5837,10 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575066</v>
+        <v>575121</v>
       </c>
       <c r="R50" t="n">
-        <v>6633905</v>
+        <v>6633838</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
@@ -5890,10 +5899,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940509</v>
+        <v>111940526</v>
       </c>
       <c r="B51" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5935,10 +5944,10 @@
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575100</v>
+        <v>575222</v>
       </c>
       <c r="R51" t="n">
-        <v>6633898</v>
+        <v>6633815</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -5997,10 +6006,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940496</v>
+        <v>111940487</v>
       </c>
       <c r="B52" t="n">
-        <v>8367</v>
+        <v>89559</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6009,43 +6018,38 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>106554</v>
+        <v>5442</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575061</v>
+        <v>575331</v>
       </c>
       <c r="R52" t="n">
-        <v>6633899</v>
+        <v>6633901</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6104,10 +6108,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940493</v>
+        <v>111940522</v>
       </c>
       <c r="B53" t="n">
-        <v>56414</v>
+        <v>96720</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6116,31 +6120,31 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P53" t="inlineStr">
@@ -6149,13 +6153,13 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575246</v>
+        <v>575287</v>
       </c>
       <c r="R53" t="n">
-        <v>6633941</v>
+        <v>6633711</v>
       </c>
       <c r="S53" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T53" t="inlineStr">
         <is>
@@ -6211,10 +6215,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940480</v>
+        <v>111940494</v>
       </c>
       <c r="B54" t="n">
-        <v>5135</v>
+        <v>56446</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6223,20 +6227,20 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>105930</v>
+        <v>100049</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -6247,7 +6251,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6256,13 +6260,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575072</v>
+        <v>575226</v>
       </c>
       <c r="R54" t="n">
-        <v>6633799</v>
+        <v>6633810</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6318,10 +6322,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940504</v>
+        <v>111940543</v>
       </c>
       <c r="B55" t="n">
-        <v>96348</v>
+        <v>5113</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6330,31 +6334,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6363,10 +6367,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575123</v>
+        <v>575299</v>
       </c>
       <c r="R55" t="n">
-        <v>6633784</v>
+        <v>6633979</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6425,10 +6429,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940543</v>
+        <v>111940538</v>
       </c>
       <c r="B56" t="n">
-        <v>5113</v>
+        <v>5295</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6437,31 +6441,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>100526</v>
+        <v>101728</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6470,10 +6474,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575299</v>
+        <v>575066</v>
       </c>
       <c r="R56" t="n">
-        <v>6633979</v>
+        <v>6633943</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6506,6 +6510,11 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC56" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6532,10 +6541,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940505</v>
+        <v>111940483</v>
       </c>
       <c r="B57" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6544,43 +6553,38 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575073</v>
+        <v>575123</v>
       </c>
       <c r="R57" t="n">
-        <v>6633822</v>
+        <v>6633784</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6639,10 +6643,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940525</v>
+        <v>111940484</v>
       </c>
       <c r="B58" t="n">
-        <v>96348</v>
+        <v>89539</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6651,43 +6655,38 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575228</v>
+        <v>575072</v>
       </c>
       <c r="R58" t="n">
-        <v>6633811</v>
+        <v>6633800</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6746,10 +6745,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940533</v>
+        <v>111940504</v>
       </c>
       <c r="B59" t="n">
-        <v>96348</v>
+        <v>96720</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6791,10 +6790,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575185</v>
+        <v>575123</v>
       </c>
       <c r="R59" t="n">
-        <v>6633939</v>
+        <v>6633784</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -6853,10 +6852,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940526</v>
+        <v>111940545</v>
       </c>
       <c r="B60" t="n">
-        <v>96348</v>
+        <v>89941</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6865,43 +6864,38 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>220787</v>
+        <v>5321</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575222</v>
+        <v>575065</v>
       </c>
       <c r="R60" t="n">
-        <v>6633815</v>
+        <v>6633950</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -6936,12 +6930,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
+      <c r="AC60" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
+      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -4416,7 +4416,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940508</v>
+        <v>111940536</v>
       </c>
       <c r="B37" t="n">
         <v>96720</v>
@@ -4461,10 +4461,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575087</v>
+        <v>575146</v>
       </c>
       <c r="R37" t="n">
-        <v>6633847</v>
+        <v>6633820</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4523,7 +4523,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940536</v>
+        <v>111940508</v>
       </c>
       <c r="B38" t="n">
         <v>96720</v>
@@ -4568,10 +4568,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575146</v>
+        <v>575087</v>
       </c>
       <c r="R38" t="n">
-        <v>6633820</v>
+        <v>6633847</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111891798</v>
+        <v>111891796</v>
       </c>
       <c r="B2" t="n">
-        <v>90152</v>
+        <v>89553</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1339</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Brandticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Pycnoporellus fulgens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Donk</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>575406</v>
+        <v>575342</v>
       </c>
       <c r="R2" t="n">
-        <v>6633802</v>
+        <v>6633805</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -782,10 +782,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111891799</v>
+        <v>111891797</v>
       </c>
       <c r="B3" t="n">
-        <v>4711</v>
+        <v>5113</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -798,21 +798,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100299</v>
+        <v>100526</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Thomsons trägnagare</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Cacotemnus thomsoni</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Kraatz, 1881)</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>575311</v>
+        <v>575308</v>
       </c>
       <c r="R3" t="n">
-        <v>6633677</v>
+        <v>6633743</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -889,10 +889,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111891797</v>
+        <v>111891798</v>
       </c>
       <c r="B4" t="n">
-        <v>5113</v>
+        <v>90166</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -905,39 +905,34 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100526</v>
+        <v>1339</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Brandticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Pycnoporellus fulgens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Fr.) Donk</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>575308</v>
+        <v>575406</v>
       </c>
       <c r="R4" t="n">
-        <v>6633743</v>
+        <v>6633802</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -996,10 +991,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111891796</v>
+        <v>111891795</v>
       </c>
       <c r="B5" t="n">
-        <v>89539</v>
+        <v>89573</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1012,21 +1007,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>5442</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1036,10 +1031,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>575342</v>
+        <v>575340</v>
       </c>
       <c r="R5" t="n">
-        <v>6633805</v>
+        <v>6633831</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1098,10 +1093,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111891795</v>
+        <v>111891799</v>
       </c>
       <c r="B6" t="n">
-        <v>89559</v>
+        <v>4711</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1110,38 +1105,43 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5442</v>
+        <v>100299</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Thomsons trägnagare</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Cacotemnus thomsoni</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(Kraatz, 1881)</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>575340</v>
+        <v>575311</v>
       </c>
       <c r="R6" t="n">
-        <v>6633831</v>
+        <v>6633677</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1200,10 +1200,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111914716</v>
+        <v>111914709</v>
       </c>
       <c r="B7" t="n">
-        <v>56446</v>
+        <v>56575</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1216,21 +1216,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100049</v>
+        <v>103021</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="N7" t="inlineStr"/>
@@ -1310,10 +1310,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111914709</v>
+        <v>111914716</v>
       </c>
       <c r="B8" t="n">
-        <v>56575</v>
+        <v>56446</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1326,21 +1326,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>103021</v>
+        <v>100049</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1348,7 +1348,7 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr">
         <is>
-          <t>lockläte, övriga läten</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="N8" t="inlineStr"/>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111940490</v>
+        <v>111940528</v>
       </c>
       <c r="B9" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1432,31 +1432,31 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
@@ -1465,13 +1465,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>575246</v>
+        <v>575243</v>
       </c>
       <c r="R9" t="n">
-        <v>6633941</v>
+        <v>6633913</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1527,10 +1527,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111940530</v>
+        <v>111940488</v>
       </c>
       <c r="B10" t="n">
-        <v>96720</v>
+        <v>56575</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1539,31 +1539,31 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>220787</v>
+        <v>103021</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1572,13 +1572,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>575220</v>
+        <v>575339</v>
       </c>
       <c r="R10" t="n">
-        <v>6633957</v>
+        <v>6633682</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1634,10 +1634,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111940488</v>
+        <v>111940532</v>
       </c>
       <c r="B11" t="n">
-        <v>56575</v>
+        <v>96735</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1646,31 +1646,31 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>103021</v>
+        <v>220787</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1679,13 +1679,13 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>575339</v>
+        <v>575220</v>
       </c>
       <c r="R11" t="n">
-        <v>6633682</v>
+        <v>6633957</v>
       </c>
       <c r="S11" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111940540</v>
+        <v>111940544</v>
       </c>
       <c r="B12" t="n">
         <v>5113</v>
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>575066</v>
+        <v>575315</v>
       </c>
       <c r="R12" t="n">
-        <v>6633905</v>
+        <v>6633769</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111940517</v>
+        <v>111940525</v>
       </c>
       <c r="B13" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1893,10 +1893,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>575315</v>
+        <v>575228</v>
       </c>
       <c r="R13" t="n">
-        <v>6633769</v>
+        <v>6633811</v>
       </c>
       <c r="S13" t="n">
         <v>5</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111940497</v>
+        <v>111940480</v>
       </c>
       <c r="B14" t="n">
-        <v>8367</v>
+        <v>5135</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1971,27 +1971,27 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>106554</v>
+        <v>105930</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2000,10 +2000,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>575056</v>
+        <v>575072</v>
       </c>
       <c r="R14" t="n">
-        <v>6633922</v>
+        <v>6633799</v>
       </c>
       <c r="S14" t="n">
         <v>5</v>
@@ -2062,10 +2062,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111940516</v>
+        <v>111940479</v>
       </c>
       <c r="B15" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2074,43 +2074,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P15" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>575281</v>
+        <v>575162</v>
       </c>
       <c r="R15" t="n">
-        <v>6633794</v>
+        <v>6633932</v>
       </c>
       <c r="S15" t="n">
         <v>5</v>
@@ -2169,10 +2164,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111940528</v>
+        <v>111940517</v>
       </c>
       <c r="B16" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2214,10 +2209,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>575243</v>
+        <v>575315</v>
       </c>
       <c r="R16" t="n">
-        <v>6633913</v>
+        <v>6633769</v>
       </c>
       <c r="S16" t="n">
         <v>5</v>
@@ -2276,10 +2271,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111940495</v>
+        <v>111940536</v>
       </c>
       <c r="B17" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2288,31 +2283,31 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -2321,13 +2316,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>575220</v>
+        <v>575146</v>
       </c>
       <c r="R17" t="n">
-        <v>6633957</v>
+        <v>6633820</v>
       </c>
       <c r="S17" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2383,10 +2378,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111940525</v>
+        <v>111940496</v>
       </c>
       <c r="B18" t="n">
-        <v>96720</v>
+        <v>8367</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2395,31 +2390,31 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>220787</v>
+        <v>106554</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
@@ -2428,10 +2423,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>575228</v>
+        <v>575061</v>
       </c>
       <c r="R18" t="n">
-        <v>6633811</v>
+        <v>6633899</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2490,10 +2485,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111940513</v>
+        <v>111940481</v>
       </c>
       <c r="B19" t="n">
-        <v>96720</v>
+        <v>5135</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2502,31 +2497,31 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>220787</v>
+        <v>105930</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vågbandad barkbock</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Semanotus undatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
@@ -2535,10 +2530,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>575312</v>
+        <v>575297</v>
       </c>
       <c r="R19" t="n">
-        <v>6633903</v>
+        <v>6633982</v>
       </c>
       <c r="S19" t="n">
         <v>5</v>
@@ -2597,10 +2592,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111940493</v>
+        <v>111940533</v>
       </c>
       <c r="B20" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2609,31 +2604,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
@@ -2642,13 +2637,13 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>575246</v>
+        <v>575185</v>
       </c>
       <c r="R20" t="n">
-        <v>6633941</v>
+        <v>6633939</v>
       </c>
       <c r="S20" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2704,10 +2699,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111940515</v>
+        <v>111940526</v>
       </c>
       <c r="B21" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2749,10 +2744,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>575286</v>
+        <v>575222</v>
       </c>
       <c r="R21" t="n">
-        <v>6633872</v>
+        <v>6633815</v>
       </c>
       <c r="S21" t="n">
         <v>5</v>
@@ -2811,10 +2806,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111940544</v>
+        <v>111940503</v>
       </c>
       <c r="B22" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -2823,31 +2818,31 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -2856,10 +2851,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>575315</v>
+        <v>575189</v>
       </c>
       <c r="R22" t="n">
-        <v>6633769</v>
+        <v>6633767</v>
       </c>
       <c r="S22" t="n">
         <v>5</v>
@@ -2918,10 +2913,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111940510</v>
+        <v>111940484</v>
       </c>
       <c r="B23" t="n">
-        <v>96720</v>
+        <v>89553</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -2930,43 +2925,38 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>220787</v>
+        <v>1202</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P23" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>575349</v>
+        <v>575072</v>
       </c>
       <c r="R23" t="n">
-        <v>6634005</v>
+        <v>6633800</v>
       </c>
       <c r="S23" t="n">
         <v>5</v>
@@ -3025,10 +3015,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111940524</v>
+        <v>111940509</v>
       </c>
       <c r="B24" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3070,10 +3060,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>575236</v>
+        <v>575100</v>
       </c>
       <c r="R24" t="n">
-        <v>6633804</v>
+        <v>6633898</v>
       </c>
       <c r="S24" t="n">
         <v>5</v>
@@ -3239,10 +3229,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111940512</v>
+        <v>111940541</v>
       </c>
       <c r="B26" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3251,31 +3241,31 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
@@ -3284,10 +3274,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>575361</v>
+        <v>575226</v>
       </c>
       <c r="R26" t="n">
-        <v>6633963</v>
+        <v>6633937</v>
       </c>
       <c r="S26" t="n">
         <v>5</v>
@@ -3346,10 +3336,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940521</v>
+        <v>111940543</v>
       </c>
       <c r="B27" t="n">
-        <v>96720</v>
+        <v>5113</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3358,31 +3348,31 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>220787</v>
+        <v>100526</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
@@ -3391,10 +3381,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575288</v>
+        <v>575299</v>
       </c>
       <c r="R27" t="n">
-        <v>6633709</v>
+        <v>6633979</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3453,10 +3443,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940481</v>
+        <v>111940495</v>
       </c>
       <c r="B28" t="n">
-        <v>5135</v>
+        <v>56446</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3465,20 +3455,20 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>105930</v>
+        <v>100049</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -3489,7 +3479,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
-          <t>färska gnagspår</t>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3498,13 +3488,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575297</v>
+        <v>575220</v>
       </c>
       <c r="R28" t="n">
-        <v>6633982</v>
+        <v>6633957</v>
       </c>
       <c r="S28" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3560,10 +3550,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940511</v>
+        <v>111940487</v>
       </c>
       <c r="B29" t="n">
-        <v>96720</v>
+        <v>89573</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3572,43 +3562,38 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>220787</v>
+        <v>5442</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575365</v>
+        <v>575331</v>
       </c>
       <c r="R29" t="n">
-        <v>6633966</v>
+        <v>6633901</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3667,10 +3652,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940501</v>
+        <v>111940516</v>
       </c>
       <c r="B30" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3712,10 +3697,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575189</v>
+        <v>575281</v>
       </c>
       <c r="R30" t="n">
-        <v>6633767</v>
+        <v>6633794</v>
       </c>
       <c r="S30" t="n">
         <v>5</v>
@@ -3774,10 +3759,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111940505</v>
+        <v>111940538</v>
       </c>
       <c r="B31" t="n">
-        <v>96720</v>
+        <v>5295</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -3786,31 +3771,31 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>220787</v>
+        <v>101728</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grön aspvedbock</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Saperda perforata</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Pallas, 1773)</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
@@ -3819,10 +3804,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>575073</v>
+        <v>575066</v>
       </c>
       <c r="R31" t="n">
-        <v>6633822</v>
+        <v>6633943</v>
       </c>
       <c r="S31" t="n">
         <v>5</v>
@@ -3855,6 +3840,11 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -3881,10 +3871,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111940506</v>
+        <v>111940514</v>
       </c>
       <c r="B32" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -3926,10 +3916,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>575087</v>
+        <v>575320</v>
       </c>
       <c r="R32" t="n">
-        <v>6633835</v>
+        <v>6633904</v>
       </c>
       <c r="S32" t="n">
         <v>5</v>
@@ -3988,10 +3978,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111940541</v>
+        <v>111940511</v>
       </c>
       <c r="B33" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4000,31 +3990,31 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -4033,10 +4023,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>575226</v>
+        <v>575365</v>
       </c>
       <c r="R33" t="n">
-        <v>6633937</v>
+        <v>6633966</v>
       </c>
       <c r="S33" t="n">
         <v>5</v>
@@ -4095,10 +4085,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111940482</v>
+        <v>111940520</v>
       </c>
       <c r="B34" t="n">
-        <v>88953</v>
+        <v>96735</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4107,38 +4097,43 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5685</v>
+        <v>220787</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gullgröppa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Pseudomerulius aureus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Jülich</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P34" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>575189</v>
+        <v>575343</v>
       </c>
       <c r="R34" t="n">
-        <v>6633767</v>
+        <v>6633715</v>
       </c>
       <c r="S34" t="n">
         <v>5</v>
@@ -4171,11 +4166,6 @@
       <c r="AA34" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC34" t="inlineStr">
-        <is>
-          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4202,10 +4192,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111940491</v>
+        <v>111940497</v>
       </c>
       <c r="B35" t="n">
-        <v>56446</v>
+        <v>8367</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4214,31 +4204,31 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>100049</v>
+        <v>106554</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Björksplintborre</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Scolytus ratzeburgii</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Janson, 1856</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="M35" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>äldre gnagspår</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
@@ -4247,13 +4237,13 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>575323</v>
+        <v>575056</v>
       </c>
       <c r="R35" t="n">
-        <v>6633911</v>
+        <v>6633922</v>
       </c>
       <c r="S35" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T35" t="inlineStr">
         <is>
@@ -4309,10 +4299,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111940480</v>
+        <v>111940506</v>
       </c>
       <c r="B36" t="n">
-        <v>5135</v>
+        <v>96735</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4321,31 +4311,31 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>105930</v>
+        <v>220787</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vågbandad barkbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Semanotus undatus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -4354,10 +4344,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>575072</v>
+        <v>575087</v>
       </c>
       <c r="R36" t="n">
-        <v>6633799</v>
+        <v>6633835</v>
       </c>
       <c r="S36" t="n">
         <v>5</v>
@@ -4416,10 +4406,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111940536</v>
+        <v>111940515</v>
       </c>
       <c r="B37" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4461,10 +4451,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>575146</v>
+        <v>575286</v>
       </c>
       <c r="R37" t="n">
-        <v>6633820</v>
+        <v>6633872</v>
       </c>
       <c r="S37" t="n">
         <v>5</v>
@@ -4523,10 +4513,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111940508</v>
+        <v>111940545</v>
       </c>
       <c r="B38" t="n">
-        <v>96720</v>
+        <v>89955</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -4535,43 +4525,38 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>220787</v>
+        <v>5321</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Barkticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Rigidoporus corticola</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Pouzar</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P38" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>575087</v>
+        <v>575065</v>
       </c>
       <c r="R38" t="n">
-        <v>6633847</v>
+        <v>6633950</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4606,12 +4591,18 @@
           <t>2023-09-06</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>På asphögstubbe</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
       </c>
@@ -4630,10 +4621,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111940523</v>
+        <v>111940493</v>
       </c>
       <c r="B39" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -4642,31 +4633,31 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
@@ -4675,13 +4666,13 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>575244</v>
+        <v>575246</v>
       </c>
       <c r="R39" t="n">
-        <v>6633768</v>
+        <v>6633941</v>
       </c>
       <c r="S39" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T39" t="inlineStr">
         <is>
@@ -4737,10 +4728,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111940509</v>
+        <v>111940485</v>
       </c>
       <c r="B40" t="n">
-        <v>96720</v>
+        <v>89517</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -4749,43 +4740,38 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>220787</v>
+        <v>5447</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>575100</v>
+        <v>575282</v>
       </c>
       <c r="R40" t="n">
-        <v>6633898</v>
+        <v>6633863</v>
       </c>
       <c r="S40" t="n">
         <v>5</v>
@@ -4844,10 +4830,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111940496</v>
+        <v>111940489</v>
       </c>
       <c r="B41" t="n">
-        <v>8367</v>
+        <v>56575</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -4856,31 +4842,31 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>106554</v>
+        <v>103021</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Björksplintborre</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Scolytus ratzeburgii</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Janson, 1856</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
         <is>
-          <t>äldre gnagspår</t>
+          <t>lockläte, övriga läten</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
@@ -4889,13 +4875,13 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>575061</v>
+        <v>575220</v>
       </c>
       <c r="R41" t="n">
-        <v>6633899</v>
+        <v>6633957</v>
       </c>
       <c r="S41" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T41" t="inlineStr">
         <is>
@@ -4951,10 +4937,10 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>111940520</v>
+        <v>111940508</v>
       </c>
       <c r="B42" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -4996,10 +4982,10 @@
         </is>
       </c>
       <c r="Q42" t="n">
-        <v>575343</v>
+        <v>575087</v>
       </c>
       <c r="R42" t="n">
-        <v>6633715</v>
+        <v>6633847</v>
       </c>
       <c r="S42" t="n">
         <v>5</v>
@@ -5058,10 +5044,10 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>111940479</v>
+        <v>111940490</v>
       </c>
       <c r="B43" t="n">
-        <v>94287</v>
+        <v>56575</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -5074,37 +5060,42 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>53</v>
+        <v>103021</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I43" t="inlineStr"/>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>lockläte, övriga läten</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q43" t="n">
-        <v>575162</v>
+        <v>575246</v>
       </c>
       <c r="R43" t="n">
-        <v>6633932</v>
+        <v>6633941</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T43" t="inlineStr">
         <is>
@@ -5160,10 +5151,10 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>111940478</v>
+        <v>111940540</v>
       </c>
       <c r="B44" t="n">
-        <v>94287</v>
+        <v>5113</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -5172,38 +5163,43 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>53</v>
+        <v>100526</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P44" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>575284</v>
+        <v>575066</v>
       </c>
       <c r="R44" t="n">
-        <v>6633814</v>
+        <v>6633905</v>
       </c>
       <c r="S44" t="n">
         <v>5</v>
@@ -5262,10 +5258,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>111940539</v>
+        <v>111940535</v>
       </c>
       <c r="B45" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -5274,31 +5270,31 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
@@ -5307,10 +5303,10 @@
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>575072</v>
+        <v>575121</v>
       </c>
       <c r="R45" t="n">
-        <v>6633800</v>
+        <v>6633838</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5369,10 +5365,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>111940485</v>
+        <v>111940491</v>
       </c>
       <c r="B46" t="n">
-        <v>89503</v>
+        <v>56446</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -5381,41 +5377,46 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>5447</v>
+        <v>100049</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P46" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>575282</v>
+        <v>575323</v>
       </c>
       <c r="R46" t="n">
-        <v>6633863</v>
+        <v>6633911</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T46" t="inlineStr">
         <is>
@@ -5471,10 +5472,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>111940489</v>
+        <v>111940483</v>
       </c>
       <c r="B47" t="n">
-        <v>56575</v>
+        <v>89553</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -5487,42 +5488,37 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>103021</v>
+        <v>1202</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>lockläte, övriga läten</t>
-        </is>
-      </c>
       <c r="P47" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>575220</v>
+        <v>575123</v>
       </c>
       <c r="R47" t="n">
-        <v>6633957</v>
+        <v>6633784</v>
       </c>
       <c r="S47" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T47" t="inlineStr">
         <is>
@@ -5578,10 +5574,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>111940514</v>
+        <v>111940505</v>
       </c>
       <c r="B48" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -5623,10 +5619,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>575320</v>
+        <v>575073</v>
       </c>
       <c r="R48" t="n">
-        <v>6633904</v>
+        <v>6633822</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
@@ -5685,10 +5681,10 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>111940533</v>
+        <v>111940482</v>
       </c>
       <c r="B49" t="n">
-        <v>96720</v>
+        <v>88967</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -5697,43 +5693,38 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>220787</v>
+        <v>5685</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gullgröppa</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pseudomerulius aureus</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.) Jülich</t>
         </is>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P49" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q49" t="n">
-        <v>575185</v>
+        <v>575189</v>
       </c>
       <c r="R49" t="n">
-        <v>6633939</v>
+        <v>6633767</v>
       </c>
       <c r="S49" t="n">
         <v>5</v>
@@ -5766,6 +5757,11 @@
       <c r="AA49" t="inlineStr">
         <is>
           <t>2023-09-06</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>På grov tallstock</t>
         </is>
       </c>
       <c r="AD49" t="b">
@@ -5792,10 +5788,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>111940535</v>
+        <v>111940494</v>
       </c>
       <c r="B50" t="n">
-        <v>96720</v>
+        <v>56446</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -5804,31 +5800,31 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
@@ -5837,13 +5833,13 @@
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>575121</v>
+        <v>575226</v>
       </c>
       <c r="R50" t="n">
-        <v>6633838</v>
+        <v>6633810</v>
       </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T50" t="inlineStr">
         <is>
@@ -5899,10 +5895,10 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>111940526</v>
+        <v>111940478</v>
       </c>
       <c r="B51" t="n">
-        <v>96720</v>
+        <v>94301</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -5911,43 +5907,38 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
-        </is>
-      </c>
       <c r="P51" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q51" t="n">
-        <v>575222</v>
+        <v>575284</v>
       </c>
       <c r="R51" t="n">
-        <v>6633815</v>
+        <v>6633814</v>
       </c>
       <c r="S51" t="n">
         <v>5</v>
@@ -6006,10 +5997,10 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>111940487</v>
+        <v>111940513</v>
       </c>
       <c r="B52" t="n">
-        <v>89559</v>
+        <v>96735</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -6018,38 +6009,43 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>5442</v>
+        <v>220787</v>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q52" t="n">
-        <v>575331</v>
+        <v>575312</v>
       </c>
       <c r="R52" t="n">
-        <v>6633901</v>
+        <v>6633903</v>
       </c>
       <c r="S52" t="n">
         <v>5</v>
@@ -6108,10 +6104,10 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>111940522</v>
+        <v>111940504</v>
       </c>
       <c r="B53" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -6153,10 +6149,10 @@
         </is>
       </c>
       <c r="Q53" t="n">
-        <v>575287</v>
+        <v>575123</v>
       </c>
       <c r="R53" t="n">
-        <v>6633711</v>
+        <v>6633784</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -6215,10 +6211,10 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>111940494</v>
+        <v>111940510</v>
       </c>
       <c r="B54" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -6227,31 +6223,31 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P54" t="inlineStr">
@@ -6260,13 +6256,13 @@
         </is>
       </c>
       <c r="Q54" t="n">
-        <v>575226</v>
+        <v>575349</v>
       </c>
       <c r="R54" t="n">
-        <v>6633810</v>
+        <v>6634005</v>
       </c>
       <c r="S54" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T54" t="inlineStr">
         <is>
@@ -6322,10 +6318,10 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>111940543</v>
+        <v>111940523</v>
       </c>
       <c r="B55" t="n">
-        <v>5113</v>
+        <v>96735</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -6334,31 +6330,31 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>100526</v>
+        <v>220787</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P55" t="inlineStr">
@@ -6367,10 +6363,10 @@
         </is>
       </c>
       <c r="Q55" t="n">
-        <v>575299</v>
+        <v>575244</v>
       </c>
       <c r="R55" t="n">
-        <v>6633979</v>
+        <v>6633768</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -6429,10 +6425,10 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>111940538</v>
+        <v>111940524</v>
       </c>
       <c r="B56" t="n">
-        <v>5295</v>
+        <v>96735</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -6441,31 +6437,31 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>101728</v>
+        <v>220787</v>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Grön aspvedbock</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Saperda perforata</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>(Pallas, 1773)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>äldre gnagspår</t>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
@@ -6474,10 +6470,10 @@
         </is>
       </c>
       <c r="Q56" t="n">
-        <v>575066</v>
+        <v>575236</v>
       </c>
       <c r="R56" t="n">
-        <v>6633943</v>
+        <v>6633804</v>
       </c>
       <c r="S56" t="n">
         <v>5</v>
@@ -6510,11 +6506,6 @@
       <c r="AA56" t="inlineStr">
         <is>
           <t>2023-09-06</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>Älde kläckhål och puppkammare</t>
         </is>
       </c>
       <c r="AD56" t="b">
@@ -6541,10 +6532,10 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>111940483</v>
+        <v>111940522</v>
       </c>
       <c r="B57" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -6553,38 +6544,43 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P57" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q57" t="n">
-        <v>575123</v>
+        <v>575287</v>
       </c>
       <c r="R57" t="n">
-        <v>6633784</v>
+        <v>6633711</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -6643,10 +6639,10 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>111940484</v>
+        <v>111940521</v>
       </c>
       <c r="B58" t="n">
-        <v>89539</v>
+        <v>96735</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -6655,38 +6651,43 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1202</v>
+        <v>220787</v>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="P58" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q58" t="n">
-        <v>575072</v>
+        <v>575288</v>
       </c>
       <c r="R58" t="n">
-        <v>6633800</v>
+        <v>6633709</v>
       </c>
       <c r="S58" t="n">
         <v>5</v>
@@ -6745,10 +6746,10 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>111940504</v>
+        <v>111940512</v>
       </c>
       <c r="B59" t="n">
-        <v>96720</v>
+        <v>96735</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -6790,10 +6791,10 @@
         </is>
       </c>
       <c r="Q59" t="n">
-        <v>575123</v>
+        <v>575361</v>
       </c>
       <c r="R59" t="n">
-        <v>6633784</v>
+        <v>6633963</v>
       </c>
       <c r="S59" t="n">
         <v>5</v>
@@ -6852,10 +6853,10 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>111940545</v>
+        <v>111940539</v>
       </c>
       <c r="B60" t="n">
-        <v>89941</v>
+        <v>5113</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -6868,34 +6869,39 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>5321</v>
+        <v>100526</v>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Barkticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Rigidoporus corticola</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>(Fr.) Pouzar</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I60" t="inlineStr"/>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P60" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q60" t="n">
-        <v>575065</v>
+        <v>575072</v>
       </c>
       <c r="R60" t="n">
-        <v>6633950</v>
+        <v>6633800</v>
       </c>
       <c r="S60" t="n">
         <v>5</v>
@@ -6930,18 +6936,12 @@
           <t>2023-09-06</t>
         </is>
       </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>På asphögstubbe</t>
-        </is>
-      </c>
       <c r="AD60" t="b">
         <v>0</v>
       </c>
       <c r="AE60" t="b">
         <v>0</v>
       </c>
-      <c r="AF60" t="inlineStr"/>
       <c r="AG60" t="b">
         <v>0</v>
       </c>

--- a/artfynd/A 37992-2023.xlsx
+++ b/artfynd/A 37992-2023.xlsx
@@ -3336,10 +3336,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111940543</v>
+        <v>111940487</v>
       </c>
       <c r="B27" t="n">
-        <v>5113</v>
+        <v>89573</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3348,43 +3348,38 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100526</v>
+        <v>5442</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Bronshjon</t>
+          <t>Tallticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Callidium coriaceum</t>
+          <t>Porodaedalea pini</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Paykull, 1800</t>
+          <t>(Brot.) Murrill</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P27" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>575299</v>
+        <v>575331</v>
       </c>
       <c r="R27" t="n">
-        <v>6633979</v>
+        <v>6633901</v>
       </c>
       <c r="S27" t="n">
         <v>5</v>
@@ -3443,10 +3438,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111940495</v>
+        <v>111940516</v>
       </c>
       <c r="B28" t="n">
-        <v>56446</v>
+        <v>96735</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3455,31 +3450,31 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100049</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -3488,13 +3483,13 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>575220</v>
+        <v>575281</v>
       </c>
       <c r="R28" t="n">
-        <v>6633957</v>
+        <v>6633794</v>
       </c>
       <c r="S28" t="n">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3550,10 +3545,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111940487</v>
+        <v>111940543</v>
       </c>
       <c r="B29" t="n">
-        <v>89573</v>
+        <v>5113</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3562,38 +3557,43 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>5442</v>
+        <v>100526</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tallticka</t>
+          <t>Bronshjon</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Porodaedalea pini</t>
+          <t>Callidium coriaceum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Brot.) Murrill</t>
+          <t>Paykull, 1800</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Kronmossberget 100m S, Vstm</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>575331</v>
+        <v>575299</v>
       </c>
       <c r="R29" t="n">
-        <v>6633901</v>
+        <v>6633979</v>
       </c>
       <c r="S29" t="n">
         <v>5</v>
@@ -3652,10 +3652,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111940516</v>
+        <v>111940495</v>
       </c>
       <c r="B30" t="n">
-        <v>96735</v>
+        <v>56446</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -3664,31 +3664,31 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>220787</v>
+        <v>100049</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>fullt utvecklade blad</t>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
@@ -3697,13 +3697,13 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>575281</v>
+        <v>575220</v>
       </c>
       <c r="R30" t="n">
-        <v>6633794</v>
+        <v>6633957</v>
       </c>
       <c r="S30" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
